--- a/analysis/algorithms.xlsx
+++ b/analysis/algorithms.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithms ranking" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithms for N" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>N = 1</t>
   </si>
@@ -70,6 +71,27 @@
   <si>
     <t>Prediction efficiency for different decomposition and classification algorithms and number (N) of learning samples per voice (25)</t>
   </si>
+  <si>
+    <t>FastICA_GaussianNB</t>
+  </si>
+  <si>
+    <t>FactorAnalysis_GaussianNB</t>
+  </si>
+  <si>
+    <t>PCA_GaussianNB</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FastICA_KNeighbors</t>
+  </si>
+  <si>
+    <t>FactorAnalysis_KNeighbors</t>
+  </si>
+  <si>
+    <t>Prediction efficiency for different decomposition and classification algorithms of number of learning samples</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -198,11 +220,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,6 +342,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -255,6 +385,3050 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Prediction efficiency for different decomposition and classification algorithms of number of learning samples</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algorithms for N'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$C$5:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3.03152789005658E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1857901184156799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14315181518151801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216340141725719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32055602358887902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46956151553852699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53786574870912196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54545454545454497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58970976253298102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.610048910626945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62005395683453202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62391996361982704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66421343146274103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66123778501628605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68785310734463201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69842782277274895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70395371263259399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70082967301122501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69614624505928802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72436218109054495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72188449848024305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72857875833760899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74064449064449001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75302790942601305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75560298826040495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77122769064359098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75822368421052599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76042245692051103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76155580608793605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.767295597484276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77494199535962804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76456739258387196</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75925925925925897</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77198302001212804</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77278325123152702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77923702313946197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78589580686149896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76888315041962496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77427821522309703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78252168112074705</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78493894165535905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78674948240165599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.788623595505618</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.79270907791279399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79403202328966505</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.792438843587842</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.79984894259818695</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.79522709776751299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80062794348508604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.79903923138510802</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79901960784313697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.81234361968306901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80749574105621802</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.811140121845082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.81850533807829096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.81619654231119199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.820297951582867</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81792183031458499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8193359375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83183183183183096</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82854209445585203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.82824025289778702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.837662337662337</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.82981090100111199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDA4-48DB-A1AD-45681CDB4BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algorithms for N'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$D$5:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.41188358932902103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9624336463862799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.184818481848184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30054189245518897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41828138163437201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46743295019157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50731497418244398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52414093083949498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56244503078276098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60293463761671795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61196043165467595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61346066393815302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65041398344066204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63936714751046997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65725047080979204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67555979037636904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68273866923818705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.694485114690092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68428853754940699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70085042521260599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68794326241134696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71062083119548403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71777546777546697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70510795155344896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70651013874066104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72850189291508904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73763201778765897</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74633596392333701</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74614065180102895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74361948955916402</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74749852854620302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74611708482676198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.745906610066707</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75061576354679804</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75422138836772901</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75730622617534904</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75403486120077401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75853018372703396</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75383589059372902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76390773405698698</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.75845410628019305</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76544943820224698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76554681915653999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76637554585152801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77020014825796801</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76888217522658597</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.77598152424942202</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.78100470957613799</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77742193755003997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.78267973856209105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.77898248540450299</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.78023850085178803</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77545691906005199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.77846975088967896</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76888080072793397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77932960893854697</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.78836987607244902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.7880859375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.78278278278278202</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.77926078028747403</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.78714436248682795</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.78463203463203401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.79310344827586199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDA4-48DB-A1AD-45681CDB4BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algorithms for N'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$E$5:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.23160873080032299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1057574520212306E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21163366336633599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36223426427678201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46798652064026902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53426990208599401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60413080895008597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63070900391474505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.654793315743183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65451311694086201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68435251798561103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68622100954979504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71113155473780998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73057235923685404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72928436911487704</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72844211529299596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73625843780135003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74036115178135598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73666007905138298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74787393696848403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74164133738601801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74397126731657204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74324324324324298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75250131648235896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75613660618996803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76149269875608405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76151315789473595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76876042245692</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77733934611048405</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77644368210405901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76914153132250496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77575044143613803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77299880525686904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77562158884172205</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77216748768472898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78236397748592801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77445997458703897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77340219496449303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78018372703411998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78652434956637696</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79443690637720399</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79710144927536197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.79845505617977497</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80271622587562497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79839883551673896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80874722016308298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80891238670694798</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.80523479599692005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81240188383045497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80704563650920702</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.80555555555555503</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80650542118432</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80834752981260605</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.81026979982593506</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.814946619217081</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.82074613284804299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.82309124767225295</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.82554814108674901</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.82421875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82582582582582498</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82751540041067695</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83245521601685901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83092324805339202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DDA4-48DB-A1AD-45681CDB4BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algorithms for N'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_KNeighbors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$F$5:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4.6483427647534298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.166598611678236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32673267326732602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37098791162984501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.444818871103622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46530438484461401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51247848537005103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52501087429317095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55233069481090502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58470431302801196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58678057553956797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59708958617553398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60579576816927305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61423918101442498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63323917137476404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65269175797999002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66875602700096404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66715470961444601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67638339920948598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69084542271135496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69503546099290703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70497691123653095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71933471933471904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72037914691943095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72518676627534595</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74364521362898806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74671052631578905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75097276264591395</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74239007891770004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.748999428244711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75348027842227305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75515008828722696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74432497013142096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.762280169799878</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76354679802955605</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75672295184490301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75222363405336701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75726275016139399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76115485564304397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76384256170780496</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76187245590230601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76604554865424401</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76896067415730296</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77626876340243001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77510917030567605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77464788732394296</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.78096676737160098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78752886836027702</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77786499215070604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.79263410728582795</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79901960784313697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.798165137614678</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79045996592844903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79721496953872895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79982206405693901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79981801637852501</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.80726256983240197</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81506196377502305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8134765625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.81281281281281204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82032854209445505</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.81664910432033699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.81493506493506496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.82647385984427102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDA4-48DB-A1AD-45681CDB4BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Algorithms for N'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_KNeighbors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Algorithms for N'!$G$5:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.126919967663702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15353205389954999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24546204620462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28053355564818599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34372367312552599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39463601532567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42469879518072201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46454980426272202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48768689533860998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52512227656736299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52383093525179802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53160527512505595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54323827046918105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56119125174499696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57156308851224102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59409242496426795</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58871745419479204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61249389946315203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60276679841897196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63431715857928905</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61296859169199502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64853771164699803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.652286902286902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65455502896261097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66061899679829195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66738777717685205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66831140350877105</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66648137854363498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66403607666290798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66781017724413905</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67807424593967502</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66627427898763902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67443249701314201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67192237719830195</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68842364532019695</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68355222013758599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68805590851334097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69593285990961895</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70472440944881798</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.70113408939292798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.71031207598371704</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71221532091097295</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70926966292134797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.70478913509649699</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71542940320232895</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72201630837657504</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.72885196374622296</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.72286374133949105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.72135007849293498</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.72778222578062401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74101307189542398</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.73144286905754796</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.73764906303236799</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72584856396866804</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.74733096085409201</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.75250227479526799</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.75512104283054005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75023832221163</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.7568359375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.74874874874874797</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.74743326488706296</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.75026343519494199</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.73593073593073499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.76084538375973298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DDA4-48DB-A1AD-45681CDB4BA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684359391"/>
+        <c:axId val="684369375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684359391"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684369375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="684369375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684359391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1490970805184087E-2"/>
+          <c:y val="0.91342540810238004"/>
+          <c:w val="0.83381131356219862"/>
+          <c:h val="7.29943476243127E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643801</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1163,4 +4337,1360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="22"/>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.03152789005658E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.41188358932902103</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.23160873080032299</v>
+      </c>
+      <c r="F5" s="14">
+        <v>4.6483427647534298E-2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.126919967663702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5.1857901184156799E-2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>7.9624336463862799E-2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>9.1057574520212306E-2</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.166598611678236</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.15353205389954999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.14315181518151801</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.184818481848184</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.21163366336633599</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.32673267326732602</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.24546204620462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.216340141725719</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.30054189245518897</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.36223426427678201</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.37098791162984501</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.28053355564818599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.32055602358887902</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.41828138163437201</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.46798652064026902</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.444818871103622</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.34372367312552599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="13">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.46956151553852699</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.46743295019157</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.53426990208599401</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.46530438484461401</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.39463601532567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.53786574870912196</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.50731497418244398</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.60413080895008597</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.51247848537005103</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.42469879518072201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.52414093083949498</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.63070900391474505</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.52501087429317095</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.46454980426272202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.58970976253298102</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.56244503078276098</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.654793315743183</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.55233069481090502</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.48768689533860998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.610048910626945</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.60293463761671795</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.65451311694086201</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.58470431302801196</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.52512227656736299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.62005395683453202</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.61196043165467595</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.68435251798561103</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.58678057553956797</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.52383093525179802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.62391996361982704</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.61346066393815302</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.68622100954979504</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.59708958617553398</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.53160527512505595</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="13">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.66421343146274103</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.65041398344066204</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.71113155473780998</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.60579576816927305</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.54323827046918105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.66123778501628605</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.63936714751046997</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.73057235923685404</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.61423918101442498</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.56119125174499696</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="13">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.68785310734463201</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.65725047080979204</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.72928436911487704</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.63323917137476404</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.57156308851224102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="13">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.69842782277274895</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.67555979037636904</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.72844211529299596</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.65269175797999002</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.59409242496426795</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.70395371263259399</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.68273866923818705</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.73625843780135003</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.66875602700096404</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.58871745419479204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.70082967301122501</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.694485114690092</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.74036115178135598</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.66715470961444601</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.61249389946315203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.69614624505928802</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.68428853754940699</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.73666007905138298</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.67638339920948598</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.60276679841897196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.72436218109054495</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.70085042521260599</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.74787393696848403</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.69084542271135496</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.63431715857928905</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
+        <v>21</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.72188449848024305</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.68794326241134696</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.74164133738601801</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.69503546099290703</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.61296859169199502</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.72857875833760899</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.71062083119548403</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.74397126731657204</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.70497691123653095</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.64853771164699803</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.74064449064449001</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.71777546777546697</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.74324324324324298</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.71933471933471904</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.652286902286902</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.75302790942601305</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.70510795155344896</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.75250131648235896</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.72037914691943095</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.65455502896261097</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="13">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.75560298826040495</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.70651013874066104</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.75613660618996803</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.72518676627534595</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.66061899679829195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="13">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.77122769064359098</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.72850189291508904</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.76149269875608405</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.74364521362898806</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.66738777717685205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="13">
+        <v>27</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.75822368421052599</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.76151315789473595</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.74671052631578905</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.66831140350877105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.76042245692051103</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.73763201778765897</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.76876042245692</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.75097276264591395</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.66648137854363498</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
+        <v>29</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.76155580608793605</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.74633596392333701</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.77733934611048405</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0.74239007891770004</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.66403607666290798</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
+        <v>30</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.767295597484276</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.74614065180102895</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.77644368210405901</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0.748999428244711</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.66781017724413905</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
+        <v>31</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.77494199535962804</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.74361948955916402</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.76914153132250496</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.75348027842227305</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.67807424593967502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="13">
+        <v>32</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.76456739258387196</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0.74749852854620302</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.77575044143613803</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0.75515008828722696</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.66627427898763902</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
+        <v>33</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.75925925925925897</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.74611708482676198</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.77299880525686904</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0.74432497013142096</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.67443249701314201</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
+        <v>34</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.77198302001212804</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.745906610066707</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.77562158884172205</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.762280169799878</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0.67192237719830195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
+        <v>35</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.77278325123152702</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.75061576354679804</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.77216748768472898</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.76354679802955605</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.68842364532019695</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
+        <v>36</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0.77923702313946197</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.75422138836772901</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0.78236397748592801</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.75672295184490301</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.68355222013758599</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="13">
+        <v>37</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.78589580686149896</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.75730622617534904</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.77445997458703897</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.75222363405336701</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.68805590851334097</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="13">
+        <v>38</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.76888315041962496</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.75403486120077401</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.77340219496449303</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.75726275016139399</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.69593285990961895</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="13">
+        <v>39</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.77427821522309703</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.75853018372703396</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.78018372703411998</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.76115485564304397</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.70472440944881798</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
+        <v>40</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.78252168112074705</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.75383589059372902</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.78652434956637696</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0.76384256170780496</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.70113408939292798</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
+        <v>41</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.78493894165535905</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.76390773405698698</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.79443690637720399</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.76187245590230601</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.71031207598371704</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.78674948240165599</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.75845410628019305</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.79710144927536197</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.76604554865424401</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0.71221532091097295</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
+        <v>43</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.788623595505618</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.76544943820224698</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0.79845505617977497</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0.76896067415730296</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0.70926966292134797</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
+        <v>44</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.79270907791279399</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.76554681915653999</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.80271622587562497</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0.77626876340243001</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0.70478913509649699</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.79403202328966505</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.76637554585152801</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.79839883551673896</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0.77510917030567605</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0.71542940320232895</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
+        <v>46</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.792438843587842</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.77020014825796801</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.80874722016308298</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0.77464788732394296</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0.72201630837657504</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
+        <v>47</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0.79984894259818695</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.76888217522658597</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.80891238670694798</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0.78096676737160098</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0.72885196374622296</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
+        <v>48</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0.79522709776751299</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0.77598152424942202</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.80523479599692005</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0.78752886836027702</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0.72286374133949105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="13">
+        <v>49</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0.80062794348508604</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0.78100470957613799</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0.81240188383045497</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0.77786499215070604</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0.72135007849293498</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B54" s="13">
+        <v>50</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0.79903923138510802</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.77742193755003997</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0.80704563650920702</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0.79263410728582795</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0.72778222578062401</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55" s="13">
+        <v>51</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0.79901960784313697</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0.78267973856209105</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0.79901960784313697</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0.74101307189542398</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
+        <v>52</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0.81234361968306901</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.77898248540450299</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.80650542118432</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0.798165137614678</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0.73144286905754796</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
+        <v>53</v>
+      </c>
+      <c r="C57" s="14">
+        <v>0.80749574105621802</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0.78023850085178803</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0.80834752981260605</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0.79045996592844903</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0.73764906303236799</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
+        <v>54</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0.811140121845082</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.77545691906005199</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.81026979982593506</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0.79721496953872895</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0.72584856396866804</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
+        <v>55</v>
+      </c>
+      <c r="C59" s="14">
+        <v>0.81850533807829096</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0.77846975088967896</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0.814946619217081</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0.79982206405693901</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0.74733096085409201</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
+        <v>56</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0.81619654231119199</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.76888080072793397</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.82074613284804299</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0.79981801637852501</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0.75250227479526799</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
+        <v>57</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0.820297951582867</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.77932960893854697</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.82309124767225295</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0.80726256983240197</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0.75512104283054005</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
+        <v>58</v>
+      </c>
+      <c r="C62" s="14">
+        <v>0.81792183031458499</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0.78836987607244902</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0.82554814108674901</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0.81506196377502305</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0.75023832221163</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
+        <v>59</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0.8193359375</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.7880859375</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0.82421875</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0.8134765625</v>
+      </c>
+      <c r="G63" s="15">
+        <v>0.7568359375</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
+        <v>60</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0.83183183183183096</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0.78278278278278202</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0.82582582582582498</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.81281281281281204</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0.74874874874874797</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B65" s="13">
+        <v>61</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0.82854209445585203</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0.77926078028747403</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0.82751540041067695</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0.82032854209445505</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0.74743326488706296</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B66" s="13">
+        <v>62</v>
+      </c>
+      <c r="C66" s="14">
+        <v>0.82824025289778702</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0.78714436248682795</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0.83245521601685901</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0.81664910432033699</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0.75026343519494199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B67" s="13">
+        <v>63</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0.837662337662337</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0.78463203463203401</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0.81493506493506496</v>
+      </c>
+      <c r="G67" s="15">
+        <v>0.73593073593073499</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="16">
+        <v>64</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0.82981090100111199</v>
+      </c>
+      <c r="D68" s="17">
+        <v>0.79310344827586199</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.83092324805339202</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.82647385984427102</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0.76084538375973298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:G68">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/analysis/algorithms.xlsx
+++ b/analysis/algorithms.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithms ranking" sheetId="1" r:id="rId1"/>
     <sheet name="Algorithms for N" sheetId="3" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>N = 1</t>
   </si>
@@ -91,6 +92,15 @@
   </si>
   <si>
     <t>Prediction efficiency for different decomposition and classification algorithms of number of learning samples</t>
+  </si>
+  <si>
+    <t>PCA_GaussianNB_prop</t>
+  </si>
+  <si>
+    <t>FastICA_GaussianNB_prop</t>
+  </si>
+  <si>
+    <t>FastICA_KNeighborsClassifier_prop</t>
   </si>
 </sst>
 </file>
@@ -339,9 +349,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,6 +377,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2840,7 +2850,2904 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$3:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.23160873080032299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1057574520212306E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21163366336633599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36223426427678201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46798652064026902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53426990208599401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60413080895008597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63070900391474505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.654793315743183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65451311694086201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68435251798561103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68622100954979504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71113155473780998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73057235923685404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72928436911487704</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72844211529299596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73625843780135003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74036115178135598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73666007905138298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74787393696848403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74164133738601801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74397126731657204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74324324324324298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75250131648235896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75613660618996803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76149269875608405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76151315789473595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76876042245692</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77733934611048405</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77644368210405901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76914153132250496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77575044143613803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77299880525686904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77562158884172205</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77216748768472898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78236397748592801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77445997458703897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77340219496449303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78018372703411998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78652434956637696</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79443690637720399</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79710144927536197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.79845505617977497</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80271622587562497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79839883551673896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80874722016308298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80891238670694798</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.80523479599692005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81240188383045497</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80704563650920702</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.80555555555555503</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80650542118432</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80834752981260605</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.81026979982593506</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.814946619217081</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.82074613284804299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.82309124767225295</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.82554814108674901</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.82421875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82582582582582498</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82751540041067695</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83245521601685901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83092324805339202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5AA-49E1-9398-327153C56FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA_GaussianNB_prop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$3:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.23170480313299999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0758741793599995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.212286444563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35820023402700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46098438265800001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52538502171500001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58269136626499995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61340458359000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63919575989400002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64194975116300002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.662109306791</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66548142558500001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68531581955099996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69997183009099995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70297375890900005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69679559829299997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70626973978999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71183424463699996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71205496109900002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71928657311499999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71938679810399997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72139566154099999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72426116206299995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72789932877600005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73566775803600004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73763076461699995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73860789420600004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74186043343800001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74657641332400004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74823053103899995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74505480011799996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74604899199999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74839722242499995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.74954995367800004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75012260668099995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75303885043899998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.74814256479300001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74958205527900001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75223380668200002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75539704161099996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76171787948400005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76577124994900003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76470630538200002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76831503450799998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76595880710999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76799421413699998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.773236180499</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.77629905703400004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77588991294599996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77702773511000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.77579428424800001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.77621153140499999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.77834745308499997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.780925556568</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.78302694569599995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.78904760872799995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79176159150900005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.79287439731700005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.79566157764599998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.79733897205000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.800485883643</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.79856911521999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.79733025989299999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.79856799196700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5AA-49E1-9398-327153C56FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$3:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3.03152789005658E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1857901184156799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14315181518151801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216340141725719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32055602358887902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46956151553852699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53786574870912196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54545454545454497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58970976253298102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.610048910626945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62005395683453202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62391996361982704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66421343146274103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66123778501628605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68785310734463201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69842782277274895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70395371263259399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70082967301122501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69614624505928802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72436218109054495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72188449848024305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72857875833760899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74064449064449001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75302790942601305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75560298826040495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77122769064359098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75822368421052599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76042245692051103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76155580608793605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.767295597484276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77494199535962804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76456739258387196</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75925925925925897</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77198302001212804</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77278325123152702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77923702313946197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78589580686149896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76888315041962496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77427821522309703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78252168112074705</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78493894165535905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78674948240165599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.788623595505618</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.79270907791279399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79403202328966505</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.792438843587842</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.79984894259818695</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.79522709776751299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80062794348508604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.79903923138510802</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79901960784313697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.81234361968306901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80749574105621802</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.811140121845082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.81850533807829096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.81619654231119199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.820297951582867</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81792183031458499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8193359375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83183183183183096</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82854209445585203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.82824025289778702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.837662337662337</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.82981090100111199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5AA-49E1-9398-327153C56FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_GaussianNB_prop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$3:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>2.9898989899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8539854487000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.120694869249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21985685356500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33552235004800002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44385090546599998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50702863651999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52391977139000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.567579236845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57478411673499996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60812259198499996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61970909517299999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.625306075071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.637788425622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.660840431472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65067250893799999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.663294822678</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67319761660999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67033358728500003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67929542682699995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69046472698600003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69398499439299999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71142596800699998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71219399691899998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72616691742100004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71997255621699996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.725475739264</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72982316146899995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.726707815925</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73538571967599997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73433168341599997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72965931661299999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73220542823400003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73812367516699995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73644896009100003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73980062295100002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.74540175950800003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73910887935500003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74118016030199996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.74031267639200005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74902343445899999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73982974217599995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74162584435900003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75000828632299998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.74101494228800002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75418932222000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76339978812800002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75758926946899996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.75214085570400002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76375136329000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.75922291593400004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76257649106600001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76945023612200003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77809250050900003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.78141562550900001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.77275857453300001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77796179097100004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.78272348630199995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.78703361413600004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.78551489789899998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.79563966548099996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.79384893660199995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.79193264101399996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.79604971280100001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C5AA-49E1-9398-327153C56FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_KNeighbors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$3:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4.6483427647534298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.166598611678236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32673267326732602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37098791162984501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.444818871103622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46530438484461401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51247848537005103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52501087429317095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55233069481090502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58470431302801196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58678057553956797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59708958617553398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60579576816927305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61423918101442498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63323917137476404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65269175797999002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66875602700096404</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66715470961444601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67638339920948598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69084542271135496</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69503546099290703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70497691123653095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71933471933471904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72037914691943095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72518676627534595</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74364521362898806</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74671052631578905</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75097276264591395</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74239007891770004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.748999428244711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75348027842227305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75515008828722696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74432497013142096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.762280169799878</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76354679802955605</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75672295184490301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75222363405336701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75726275016139399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76115485564304397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76384256170780496</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76187245590230601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76604554865424401</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76896067415730296</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77626876340243001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77510917030567605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77464788732394296</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.78096676737160098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78752886836027702</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77786499215070604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.79263410728582795</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79901960784313697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.798165137614678</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79045996592844903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79721496953872895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79982206405693901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79981801637852501</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.80726256983240197</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81506196377502305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8134765625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.81281281281281204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82032854209445505</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.81664910432033699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.81493506493506496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.82647385984427102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C5AA-49E1-9398-327153C56FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_KNeighborsClassifier_prop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$3:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>4.2898371469800002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16245318746099999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22196563573899999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26256666666700001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30295363941800002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33350995195599997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36566619915800003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.382238891543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39637606837599998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42866317103599999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44815730337100002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46189864158799998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47329270248600003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48633871409000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50221736694700003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50982214572600004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51943226564800005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.532698584764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54145308642000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55151392405099997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55423823433999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56504562104599998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57530416951499996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57846596491199997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58394666666700001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59541058867100005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59786453576900001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60305790297299999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61224144869200003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60967619047599997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61364194373400005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.61407199297600001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61356309362299999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61777342657300005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62396346153799997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.62295833333299999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62610547875099998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63142887361199995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.634832786885</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63861694915300005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.64007948568100004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.641188142771</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64472431077699999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65095584415600005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65420336700299997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65505800139799997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65896081277200003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66210859728500004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65924078431400002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66762775510200001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67179251700700005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.67229432624100005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.672980573543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.67666473429999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.68121212121200003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.68561099365800005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.68796899224800001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69062950058100003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.69166829268300001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.69295384615400002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69616194332000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.69300711237599999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.69335735735699999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70461587301600004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C5AA-49E1-9398-327153C56FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829674879"/>
+        <c:axId val="829653663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829674879"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829653663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="829653663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829674879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3396,6 +6303,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3414,6 +6837,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445292</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>519111</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3713,19 +7171,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
@@ -4343,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4358,1318 +7816,1318 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>3.03152789005658E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.41188358932902103</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0.23160873080032299</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>4.6483427647534298E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.126919967663702</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>5.1857901184156799E-2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>7.9624336463862799E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>9.1057574520212306E-2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>0.166598611678236</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.15353205389954999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0.14315181518151801</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.184818481848184</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.21163366336633599</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>0.32673267326732602</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>0.24546204620462</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0.216340141725719</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.30054189245518897</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.36223426427678201</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0.37098791162984501</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0.28053355564818599</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>0.32055602358887902</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.41828138163437201</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.46798652064026902</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>0.444818871103622</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>0.34372367312552599</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.46956151553852699</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.46743295019157</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.53426990208599401</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0.46530438484461401</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>0.39463601532567</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.53786574870912196</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.50731497418244398</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0.60413080895008597</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>0.51247848537005103</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>0.42469879518072201</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.54545454545454497</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.52414093083949498</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.63070900391474505</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0.52501087429317095</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0.46454980426272202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>0.58970976253298102</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.56244503078276098</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0.654793315743183</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>0.55233069481090502</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0.48768689533860998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0.610048910626945</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0.60293463761671795</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>0.65451311694086201</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>0.58470431302801196</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>0.52512227656736299</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>11</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0.62005395683453202</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.61196043165467595</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>0.68435251798561103</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>0.58678057553956797</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>0.52383093525179802</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0.62391996361982704</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.61346066393815302</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>0.68622100954979504</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>0.59708958617553398</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>0.53160527512505595</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>13</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0.66421343146274103</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>0.65041398344066204</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>0.71113155473780998</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>0.60579576816927305</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>0.54323827046918105</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>14</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>0.66123778501628605</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>0.63936714751046997</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>0.73057235923685404</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0.61423918101442498</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>0.56119125174499696</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>15</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0.68785310734463201</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>0.65725047080979204</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>0.72928436911487704</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>0.63323917137476404</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.57156308851224102</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>16</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0.69842782277274895</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>0.67555979037636904</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>0.72844211529299596</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>0.65269175797999002</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.59409242496426795</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>17</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>0.70395371263259399</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.68273866923818705</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>0.73625843780135003</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>0.66875602700096404</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>0.58871745419479204</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>0.70082967301122501</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>0.694485114690092</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>0.74036115178135598</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>0.66715470961444601</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>0.61249389946315203</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>19</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>0.69614624505928802</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>0.68428853754940699</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>0.73666007905138298</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>0.67638339920948598</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0.60276679841897196</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>20</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>0.72436218109054495</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>0.70085042521260599</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>0.74787393696848403</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>0.69084542271135496</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>0.63431715857928905</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>21</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>0.72188449848024305</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>0.68794326241134696</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>0.74164133738601801</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>0.69503546099290703</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>0.61296859169199502</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>22</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>0.72857875833760899</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>0.71062083119548403</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>0.74397126731657204</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>0.70497691123653095</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>0.64853771164699803</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>23</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>0.74064449064449001</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>0.71777546777546697</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>0.74324324324324298</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>0.71933471933471904</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>0.652286902286902</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>24</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>0.75302790942601305</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>0.70510795155344896</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>0.75250131648235896</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>0.72037914691943095</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>0.65455502896261097</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>0.75560298826040495</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>0.70651013874066104</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>0.75613660618996803</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>0.72518676627534595</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>0.66061899679829195</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>26</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>0.77122769064359098</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>0.72850189291508904</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>0.76149269875608405</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>0.74364521362898806</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>0.66738777717685205</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>27</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>0.75822368421052599</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>0.75</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>0.76151315789473595</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>0.74671052631578905</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>0.66831140350877105</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>28</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>0.76042245692051103</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>0.73763201778765897</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>0.76876042245692</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>0.75097276264591395</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <v>0.66648137854363498</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>29</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>0.76155580608793605</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>0.74633596392333701</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>0.77733934611048405</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>0.74239007891770004</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>0.66403607666290798</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>30</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>0.767295597484276</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>0.74614065180102895</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>0.77644368210405901</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <v>0.748999428244711</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>0.66781017724413905</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>31</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>0.77494199535962804</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>0.74361948955916402</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>0.76914153132250496</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>0.75348027842227305</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>0.67807424593967502</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>32</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>0.76456739258387196</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>0.74749852854620302</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>0.77575044143613803</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>0.75515008828722696</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>0.66627427898763902</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>33</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>0.75925925925925897</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>0.74611708482676198</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>0.77299880525686904</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>0.74432497013142096</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <v>0.67443249701314201</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>34</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>0.77198302001212804</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>0.745906610066707</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>0.77562158884172205</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>0.762280169799878</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <v>0.67192237719830195</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>35</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>0.77278325123152702</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>0.75061576354679804</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>0.77216748768472898</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>0.76354679802955605</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>0.68842364532019695</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>36</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>0.77923702313946197</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>0.75422138836772901</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>0.78236397748592801</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
         <v>0.75672295184490301</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <v>0.68355222013758599</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>37</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>0.78589580686149896</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>0.75730622617534904</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>0.77445997458703897</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>0.75222363405336701</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>0.68805590851334097</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>38</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>0.76888315041962496</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>0.75403486120077401</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>0.77340219496449303</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>0.75726275016139399</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>0.69593285990961895</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>39</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>0.77427821522309703</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>0.75853018372703396</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>0.78018372703411998</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
         <v>0.76115485564304397</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>0.70472440944881798</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>40</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>0.78252168112074705</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>0.75383589059372902</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>0.78652434956637696</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
         <v>0.76384256170780496</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>0.70113408939292798</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>41</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <v>0.78493894165535905</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>0.76390773405698698</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>0.79443690637720399</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
         <v>0.76187245590230601</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>0.71031207598371704</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>42</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>0.78674948240165599</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>0.75845410628019305</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>0.79710144927536197</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="13">
         <v>0.76604554865424401</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>0.71221532091097295</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>43</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>0.788623595505618</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>0.76544943820224698</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>0.79845505617977497</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
         <v>0.76896067415730296</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="14">
         <v>0.70926966292134797</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>44</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <v>0.79270907791279399</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>0.76554681915653999</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>0.80271622587562497</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
         <v>0.77626876340243001</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>0.70478913509649699</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>45</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>0.79403202328966505</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>0.76637554585152801</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>0.79839883551673896</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <v>0.77510917030567605</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <v>0.71542940320232895</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>46</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>0.792438843587842</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>0.77020014825796801</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>0.80874722016308298</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="13">
         <v>0.77464788732394296</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <v>0.72201630837657504</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>47</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>0.79984894259818695</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>0.76888217522658597</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>0.80891238670694798</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
         <v>0.78096676737160098</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>0.72885196374622296</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>48</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>0.79522709776751299</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>0.77598152424942202</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>0.80523479599692005</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="13">
         <v>0.78752886836027702</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <v>0.72286374133949105</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>49</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <v>0.80062794348508604</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>0.78100470957613799</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>0.81240188383045497</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
         <v>0.77786499215070604</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>0.72135007849293498</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>50</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <v>0.79903923138510802</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>0.77742193755003997</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <v>0.80704563650920702</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="13">
         <v>0.79263410728582795</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <v>0.72778222578062401</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>51</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <v>0.79901960784313697</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>0.78267973856209105</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>0.80555555555555503</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="13">
         <v>0.79901960784313697</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>0.74101307189542398</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>52</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="13">
         <v>0.81234361968306901</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <v>0.77898248540450299</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>0.80650542118432</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="13">
         <v>0.798165137614678</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>0.73144286905754796</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>53</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="13">
         <v>0.80749574105621802</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>0.78023850085178803</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>0.80834752981260605</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>0.79045996592844903</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>0.73764906303236799</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>54</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="13">
         <v>0.811140121845082</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <v>0.77545691906005199</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>0.81026979982593506</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="13">
         <v>0.79721496953872895</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>0.72584856396866804</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>55</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="13">
         <v>0.81850533807829096</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>0.77846975088967896</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>0.814946619217081</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="13">
         <v>0.79982206405693901</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>0.74733096085409201</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>56</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="13">
         <v>0.81619654231119199</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>0.76888080072793397</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <v>0.82074613284804299</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="13">
         <v>0.79981801637852501</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="14">
         <v>0.75250227479526799</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>57</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="13">
         <v>0.820297951582867</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="13">
         <v>0.77932960893854697</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <v>0.82309124767225295</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="13">
         <v>0.80726256983240197</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>0.75512104283054005</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>58</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <v>0.81792183031458499</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <v>0.78836987607244902</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <v>0.82554814108674901</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="13">
         <v>0.81506196377502305</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>0.75023832221163</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>59</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="13">
         <v>0.8193359375</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="13">
         <v>0.7880859375</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="13">
         <v>0.82421875</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="13">
         <v>0.8134765625</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>0.7568359375</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>60</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="13">
         <v>0.83183183183183096</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <v>0.78278278278278202</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="13">
         <v>0.82582582582582498</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="13">
         <v>0.81281281281281204</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <v>0.74874874874874797</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>61</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <v>0.82854209445585203</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <v>0.77926078028747403</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <v>0.82751540041067695</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="13">
         <v>0.82032854209445505</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="14">
         <v>0.74743326488706296</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>62</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <v>0.82824025289778702</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <v>0.78714436248682795</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="13">
         <v>0.83245521601685901</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="13">
         <v>0.81664910432033699</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="14">
         <v>0.75026343519494199</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>63</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <v>0.837662337662337</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <v>0.78463203463203401</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="13">
         <v>0.81493506493506496</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="14">
         <v>0.73593073593073499</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>64</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>0.82981090100111199</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <v>0.79310344827586199</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="16">
         <v>0.83092324805339202</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <v>0.82647385984427102</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="17">
         <v>0.76084538375973298</v>
       </c>
     </row>
@@ -5693,4 +9151,1521 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="7" width="10.59765625" customWidth="1"/>
+    <col min="9" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.23160873080032299</v>
+      </c>
+      <c r="D3">
+        <v>0.23170480313299999</v>
+      </c>
+      <c r="E3">
+        <v>3.03152789005658E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.9898989899E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.6483427647534298E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2898371469800002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>9.1057574520212306E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.0758741793599995E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.1857901184156799E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.8539854487000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.166598611678236</v>
+      </c>
+      <c r="H4">
+        <v>0.16245318746099999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.21163366336633599</v>
+      </c>
+      <c r="D5">
+        <v>0.212286444563</v>
+      </c>
+      <c r="E5">
+        <v>0.14315181518151801</v>
+      </c>
+      <c r="F5">
+        <v>0.120694869249</v>
+      </c>
+      <c r="G5">
+        <v>0.32673267326732602</v>
+      </c>
+      <c r="H5">
+        <v>0.22196563573899999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.36223426427678201</v>
+      </c>
+      <c r="D6">
+        <v>0.35820023402700002</v>
+      </c>
+      <c r="E6">
+        <v>0.216340141725719</v>
+      </c>
+      <c r="F6">
+        <v>0.21985685356500001</v>
+      </c>
+      <c r="G6">
+        <v>0.37098791162984501</v>
+      </c>
+      <c r="H6">
+        <v>0.26256666666700001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.46798652064026902</v>
+      </c>
+      <c r="D7">
+        <v>0.46098438265800001</v>
+      </c>
+      <c r="E7">
+        <v>0.32055602358887902</v>
+      </c>
+      <c r="F7">
+        <v>0.33552235004800002</v>
+      </c>
+      <c r="G7">
+        <v>0.444818871103622</v>
+      </c>
+      <c r="H7">
+        <v>0.30295363941800002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.53426990208599401</v>
+      </c>
+      <c r="D8">
+        <v>0.52538502171500001</v>
+      </c>
+      <c r="E8">
+        <v>0.46956151553852699</v>
+      </c>
+      <c r="F8">
+        <v>0.44385090546599998</v>
+      </c>
+      <c r="G8">
+        <v>0.46530438484461401</v>
+      </c>
+      <c r="H8">
+        <v>0.33350995195599997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.60413080895008597</v>
+      </c>
+      <c r="D9">
+        <v>0.58269136626499995</v>
+      </c>
+      <c r="E9">
+        <v>0.53786574870912196</v>
+      </c>
+      <c r="F9">
+        <v>0.50702863651999996</v>
+      </c>
+      <c r="G9">
+        <v>0.51247848537005103</v>
+      </c>
+      <c r="H9">
+        <v>0.36566619915800003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.63070900391474505</v>
+      </c>
+      <c r="D10">
+        <v>0.61340458359000005</v>
+      </c>
+      <c r="E10">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="F10">
+        <v>0.52391977139000001</v>
+      </c>
+      <c r="G10">
+        <v>0.52501087429317095</v>
+      </c>
+      <c r="H10">
+        <v>0.382238891543</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.654793315743183</v>
+      </c>
+      <c r="D11">
+        <v>0.63919575989400002</v>
+      </c>
+      <c r="E11">
+        <v>0.58970976253298102</v>
+      </c>
+      <c r="F11">
+        <v>0.567579236845</v>
+      </c>
+      <c r="G11">
+        <v>0.55233069481090502</v>
+      </c>
+      <c r="H11">
+        <v>0.39637606837599998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.65451311694086201</v>
+      </c>
+      <c r="D12">
+        <v>0.64194975116300002</v>
+      </c>
+      <c r="E12">
+        <v>0.610048910626945</v>
+      </c>
+      <c r="F12">
+        <v>0.57478411673499996</v>
+      </c>
+      <c r="G12">
+        <v>0.58470431302801196</v>
+      </c>
+      <c r="H12">
+        <v>0.42866317103599999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.68435251798561103</v>
+      </c>
+      <c r="D13">
+        <v>0.662109306791</v>
+      </c>
+      <c r="E13">
+        <v>0.62005395683453202</v>
+      </c>
+      <c r="F13">
+        <v>0.60812259198499996</v>
+      </c>
+      <c r="G13">
+        <v>0.58678057553956797</v>
+      </c>
+      <c r="H13">
+        <v>0.44815730337100002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.68622100954979504</v>
+      </c>
+      <c r="D14">
+        <v>0.66548142558500001</v>
+      </c>
+      <c r="E14">
+        <v>0.62391996361982704</v>
+      </c>
+      <c r="F14">
+        <v>0.61970909517299999</v>
+      </c>
+      <c r="G14">
+        <v>0.59708958617553398</v>
+      </c>
+      <c r="H14">
+        <v>0.46189864158799998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.71113155473780998</v>
+      </c>
+      <c r="D15">
+        <v>0.68531581955099996</v>
+      </c>
+      <c r="E15">
+        <v>0.66421343146274103</v>
+      </c>
+      <c r="F15">
+        <v>0.625306075071</v>
+      </c>
+      <c r="G15">
+        <v>0.60579576816927305</v>
+      </c>
+      <c r="H15">
+        <v>0.47329270248600003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.73057235923685404</v>
+      </c>
+      <c r="D16">
+        <v>0.69997183009099995</v>
+      </c>
+      <c r="E16">
+        <v>0.66123778501628605</v>
+      </c>
+      <c r="F16">
+        <v>0.637788425622</v>
+      </c>
+      <c r="G16">
+        <v>0.61423918101442498</v>
+      </c>
+      <c r="H16">
+        <v>0.48633871409000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.72928436911487704</v>
+      </c>
+      <c r="D17">
+        <v>0.70297375890900005</v>
+      </c>
+      <c r="E17">
+        <v>0.68785310734463201</v>
+      </c>
+      <c r="F17">
+        <v>0.660840431472</v>
+      </c>
+      <c r="G17">
+        <v>0.63323917137476404</v>
+      </c>
+      <c r="H17">
+        <v>0.50221736694700003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.72844211529299596</v>
+      </c>
+      <c r="D18">
+        <v>0.69679559829299997</v>
+      </c>
+      <c r="E18">
+        <v>0.69842782277274895</v>
+      </c>
+      <c r="F18">
+        <v>0.65067250893799999</v>
+      </c>
+      <c r="G18">
+        <v>0.65269175797999002</v>
+      </c>
+      <c r="H18">
+        <v>0.50982214572600004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.73625843780135003</v>
+      </c>
+      <c r="D19">
+        <v>0.70626973978999996</v>
+      </c>
+      <c r="E19">
+        <v>0.70395371263259399</v>
+      </c>
+      <c r="F19">
+        <v>0.663294822678</v>
+      </c>
+      <c r="G19">
+        <v>0.66875602700096404</v>
+      </c>
+      <c r="H19">
+        <v>0.51943226564800005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.74036115178135598</v>
+      </c>
+      <c r="D20">
+        <v>0.71183424463699996</v>
+      </c>
+      <c r="E20">
+        <v>0.70082967301122501</v>
+      </c>
+      <c r="F20">
+        <v>0.67319761660999999</v>
+      </c>
+      <c r="G20">
+        <v>0.66715470961444601</v>
+      </c>
+      <c r="H20">
+        <v>0.532698584764</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.73666007905138298</v>
+      </c>
+      <c r="D21">
+        <v>0.71205496109900002</v>
+      </c>
+      <c r="E21">
+        <v>0.69614624505928802</v>
+      </c>
+      <c r="F21">
+        <v>0.67033358728500003</v>
+      </c>
+      <c r="G21">
+        <v>0.67638339920948598</v>
+      </c>
+      <c r="H21">
+        <v>0.54145308642000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.74787393696848403</v>
+      </c>
+      <c r="D22">
+        <v>0.71928657311499999</v>
+      </c>
+      <c r="E22">
+        <v>0.72436218109054495</v>
+      </c>
+      <c r="F22">
+        <v>0.67929542682699995</v>
+      </c>
+      <c r="G22">
+        <v>0.69084542271135496</v>
+      </c>
+      <c r="H22">
+        <v>0.55151392405099997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.74164133738601801</v>
+      </c>
+      <c r="D23">
+        <v>0.71938679810399997</v>
+      </c>
+      <c r="E23">
+        <v>0.72188449848024305</v>
+      </c>
+      <c r="F23">
+        <v>0.69046472698600003</v>
+      </c>
+      <c r="G23">
+        <v>0.69503546099290703</v>
+      </c>
+      <c r="H23">
+        <v>0.55423823433999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.74397126731657204</v>
+      </c>
+      <c r="D24">
+        <v>0.72139566154099999</v>
+      </c>
+      <c r="E24">
+        <v>0.72857875833760899</v>
+      </c>
+      <c r="F24">
+        <v>0.69398499439299999</v>
+      </c>
+      <c r="G24">
+        <v>0.70497691123653095</v>
+      </c>
+      <c r="H24">
+        <v>0.56504562104599998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.74324324324324298</v>
+      </c>
+      <c r="D25">
+        <v>0.72426116206299995</v>
+      </c>
+      <c r="E25">
+        <v>0.74064449064449001</v>
+      </c>
+      <c r="F25">
+        <v>0.71142596800699998</v>
+      </c>
+      <c r="G25">
+        <v>0.71933471933471904</v>
+      </c>
+      <c r="H25">
+        <v>0.57530416951499996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.75250131648235896</v>
+      </c>
+      <c r="D26">
+        <v>0.72789932877600005</v>
+      </c>
+      <c r="E26">
+        <v>0.75302790942601305</v>
+      </c>
+      <c r="F26">
+        <v>0.71219399691899998</v>
+      </c>
+      <c r="G26">
+        <v>0.72037914691943095</v>
+      </c>
+      <c r="H26">
+        <v>0.57846596491199997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.75613660618996803</v>
+      </c>
+      <c r="D27">
+        <v>0.73566775803600004</v>
+      </c>
+      <c r="E27">
+        <v>0.75560298826040495</v>
+      </c>
+      <c r="F27">
+        <v>0.72616691742100004</v>
+      </c>
+      <c r="G27">
+        <v>0.72518676627534595</v>
+      </c>
+      <c r="H27">
+        <v>0.58394666666700001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.76149269875608405</v>
+      </c>
+      <c r="D28">
+        <v>0.73763076461699995</v>
+      </c>
+      <c r="E28">
+        <v>0.77122769064359098</v>
+      </c>
+      <c r="F28">
+        <v>0.71997255621699996</v>
+      </c>
+      <c r="G28">
+        <v>0.74364521362898806</v>
+      </c>
+      <c r="H28">
+        <v>0.59541058867100005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.76151315789473595</v>
+      </c>
+      <c r="D29">
+        <v>0.73860789420600004</v>
+      </c>
+      <c r="E29">
+        <v>0.75822368421052599</v>
+      </c>
+      <c r="F29">
+        <v>0.725475739264</v>
+      </c>
+      <c r="G29">
+        <v>0.74671052631578905</v>
+      </c>
+      <c r="H29">
+        <v>0.59786453576900001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.76876042245692</v>
+      </c>
+      <c r="D30">
+        <v>0.74186043343800001</v>
+      </c>
+      <c r="E30">
+        <v>0.76042245692051103</v>
+      </c>
+      <c r="F30">
+        <v>0.72982316146899995</v>
+      </c>
+      <c r="G30">
+        <v>0.75097276264591395</v>
+      </c>
+      <c r="H30">
+        <v>0.60305790297299999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.77733934611048405</v>
+      </c>
+      <c r="D31">
+        <v>0.74657641332400004</v>
+      </c>
+      <c r="E31">
+        <v>0.76155580608793605</v>
+      </c>
+      <c r="F31">
+        <v>0.726707815925</v>
+      </c>
+      <c r="G31">
+        <v>0.74239007891770004</v>
+      </c>
+      <c r="H31">
+        <v>0.61224144869200003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.77644368210405901</v>
+      </c>
+      <c r="D32">
+        <v>0.74823053103899995</v>
+      </c>
+      <c r="E32">
+        <v>0.767295597484276</v>
+      </c>
+      <c r="F32">
+        <v>0.73538571967599997</v>
+      </c>
+      <c r="G32">
+        <v>0.748999428244711</v>
+      </c>
+      <c r="H32">
+        <v>0.60967619047599997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.76914153132250496</v>
+      </c>
+      <c r="D33">
+        <v>0.74505480011799996</v>
+      </c>
+      <c r="E33">
+        <v>0.77494199535962804</v>
+      </c>
+      <c r="F33">
+        <v>0.73433168341599997</v>
+      </c>
+      <c r="G33">
+        <v>0.75348027842227305</v>
+      </c>
+      <c r="H33">
+        <v>0.61364194373400005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.77575044143613803</v>
+      </c>
+      <c r="D34">
+        <v>0.74604899199999997</v>
+      </c>
+      <c r="E34">
+        <v>0.76456739258387196</v>
+      </c>
+      <c r="F34">
+        <v>0.72965931661299999</v>
+      </c>
+      <c r="G34">
+        <v>0.75515008828722696</v>
+      </c>
+      <c r="H34">
+        <v>0.61407199297600001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.77299880525686904</v>
+      </c>
+      <c r="D35">
+        <v>0.74839722242499995</v>
+      </c>
+      <c r="E35">
+        <v>0.75925925925925897</v>
+      </c>
+      <c r="F35">
+        <v>0.73220542823400003</v>
+      </c>
+      <c r="G35">
+        <v>0.74432497013142096</v>
+      </c>
+      <c r="H35">
+        <v>0.61356309362299999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.77562158884172205</v>
+      </c>
+      <c r="D36">
+        <v>0.74954995367800004</v>
+      </c>
+      <c r="E36">
+        <v>0.77198302001212804</v>
+      </c>
+      <c r="F36">
+        <v>0.73812367516699995</v>
+      </c>
+      <c r="G36">
+        <v>0.762280169799878</v>
+      </c>
+      <c r="H36">
+        <v>0.61777342657300005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.77216748768472898</v>
+      </c>
+      <c r="D37">
+        <v>0.75012260668099995</v>
+      </c>
+      <c r="E37">
+        <v>0.77278325123152702</v>
+      </c>
+      <c r="F37">
+        <v>0.73644896009100003</v>
+      </c>
+      <c r="G37">
+        <v>0.76354679802955605</v>
+      </c>
+      <c r="H37">
+        <v>0.62396346153799997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.78236397748592801</v>
+      </c>
+      <c r="D38">
+        <v>0.75303885043899998</v>
+      </c>
+      <c r="E38">
+        <v>0.77923702313946197</v>
+      </c>
+      <c r="F38">
+        <v>0.73980062295100002</v>
+      </c>
+      <c r="G38">
+        <v>0.75672295184490301</v>
+      </c>
+      <c r="H38">
+        <v>0.62295833333299999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.77445997458703897</v>
+      </c>
+      <c r="D39">
+        <v>0.74814256479300001</v>
+      </c>
+      <c r="E39">
+        <v>0.78589580686149896</v>
+      </c>
+      <c r="F39">
+        <v>0.74540175950800003</v>
+      </c>
+      <c r="G39">
+        <v>0.75222363405336701</v>
+      </c>
+      <c r="H39">
+        <v>0.62610547875099998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.77340219496449303</v>
+      </c>
+      <c r="D40">
+        <v>0.74958205527900001</v>
+      </c>
+      <c r="E40">
+        <v>0.76888315041962496</v>
+      </c>
+      <c r="F40">
+        <v>0.73910887935500003</v>
+      </c>
+      <c r="G40">
+        <v>0.75726275016139399</v>
+      </c>
+      <c r="H40">
+        <v>0.63142887361199995</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.78018372703411998</v>
+      </c>
+      <c r="D41">
+        <v>0.75223380668200002</v>
+      </c>
+      <c r="E41">
+        <v>0.77427821522309703</v>
+      </c>
+      <c r="F41">
+        <v>0.74118016030199996</v>
+      </c>
+      <c r="G41">
+        <v>0.76115485564304397</v>
+      </c>
+      <c r="H41">
+        <v>0.634832786885</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.78652434956637696</v>
+      </c>
+      <c r="D42">
+        <v>0.75539704161099996</v>
+      </c>
+      <c r="E42">
+        <v>0.78252168112074705</v>
+      </c>
+      <c r="F42">
+        <v>0.74031267639200005</v>
+      </c>
+      <c r="G42">
+        <v>0.76384256170780496</v>
+      </c>
+      <c r="H42">
+        <v>0.63861694915300005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.79443690637720399</v>
+      </c>
+      <c r="D43">
+        <v>0.76171787948400005</v>
+      </c>
+      <c r="E43">
+        <v>0.78493894165535905</v>
+      </c>
+      <c r="F43">
+        <v>0.74902343445899999</v>
+      </c>
+      <c r="G43">
+        <v>0.76187245590230601</v>
+      </c>
+      <c r="H43">
+        <v>0.64007948568100004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.79710144927536197</v>
+      </c>
+      <c r="D44">
+        <v>0.76577124994900003</v>
+      </c>
+      <c r="E44">
+        <v>0.78674948240165599</v>
+      </c>
+      <c r="F44">
+        <v>0.73982974217599995</v>
+      </c>
+      <c r="G44">
+        <v>0.76604554865424401</v>
+      </c>
+      <c r="H44">
+        <v>0.641188142771</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.79845505617977497</v>
+      </c>
+      <c r="D45">
+        <v>0.76470630538200002</v>
+      </c>
+      <c r="E45">
+        <v>0.788623595505618</v>
+      </c>
+      <c r="F45">
+        <v>0.74162584435900003</v>
+      </c>
+      <c r="G45">
+        <v>0.76896067415730296</v>
+      </c>
+      <c r="H45">
+        <v>0.64472431077699999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.80271622587562497</v>
+      </c>
+      <c r="D46">
+        <v>0.76831503450799998</v>
+      </c>
+      <c r="E46">
+        <v>0.79270907791279399</v>
+      </c>
+      <c r="F46">
+        <v>0.75000828632299998</v>
+      </c>
+      <c r="G46">
+        <v>0.77626876340243001</v>
+      </c>
+      <c r="H46">
+        <v>0.65095584415600005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.79839883551673896</v>
+      </c>
+      <c r="D47">
+        <v>0.76595880710999997</v>
+      </c>
+      <c r="E47">
+        <v>0.79403202328966505</v>
+      </c>
+      <c r="F47">
+        <v>0.74101494228800002</v>
+      </c>
+      <c r="G47">
+        <v>0.77510917030567605</v>
+      </c>
+      <c r="H47">
+        <v>0.65420336700299997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0.80874722016308298</v>
+      </c>
+      <c r="D48">
+        <v>0.76799421413699998</v>
+      </c>
+      <c r="E48">
+        <v>0.792438843587842</v>
+      </c>
+      <c r="F48">
+        <v>0.75418932222000001</v>
+      </c>
+      <c r="G48">
+        <v>0.77464788732394296</v>
+      </c>
+      <c r="H48">
+        <v>0.65505800139799997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0.80891238670694798</v>
+      </c>
+      <c r="D49">
+        <v>0.773236180499</v>
+      </c>
+      <c r="E49">
+        <v>0.79984894259818695</v>
+      </c>
+      <c r="F49">
+        <v>0.76339978812800002</v>
+      </c>
+      <c r="G49">
+        <v>0.78096676737160098</v>
+      </c>
+      <c r="H49">
+        <v>0.65896081277200003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.80523479599692005</v>
+      </c>
+      <c r="D50">
+        <v>0.77629905703400004</v>
+      </c>
+      <c r="E50">
+        <v>0.79522709776751299</v>
+      </c>
+      <c r="F50">
+        <v>0.75758926946899996</v>
+      </c>
+      <c r="G50">
+        <v>0.78752886836027702</v>
+      </c>
+      <c r="H50">
+        <v>0.66210859728500004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0.81240188383045497</v>
+      </c>
+      <c r="D51">
+        <v>0.77588991294599996</v>
+      </c>
+      <c r="E51">
+        <v>0.80062794348508604</v>
+      </c>
+      <c r="F51">
+        <v>0.75214085570400002</v>
+      </c>
+      <c r="G51">
+        <v>0.77786499215070604</v>
+      </c>
+      <c r="H51">
+        <v>0.65924078431400002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0.80704563650920702</v>
+      </c>
+      <c r="D52">
+        <v>0.77702773511000001</v>
+      </c>
+      <c r="E52">
+        <v>0.79903923138510802</v>
+      </c>
+      <c r="F52">
+        <v>0.76375136329000004</v>
+      </c>
+      <c r="G52">
+        <v>0.79263410728582795</v>
+      </c>
+      <c r="H52">
+        <v>0.66762775510200001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="D53">
+        <v>0.77579428424800001</v>
+      </c>
+      <c r="E53">
+        <v>0.79901960784313697</v>
+      </c>
+      <c r="F53">
+        <v>0.75922291593400004</v>
+      </c>
+      <c r="G53">
+        <v>0.79901960784313697</v>
+      </c>
+      <c r="H53">
+        <v>0.67179251700700005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>0.80650542118432</v>
+      </c>
+      <c r="D54">
+        <v>0.77621153140499999</v>
+      </c>
+      <c r="E54">
+        <v>0.81234361968306901</v>
+      </c>
+      <c r="F54">
+        <v>0.76257649106600001</v>
+      </c>
+      <c r="G54">
+        <v>0.798165137614678</v>
+      </c>
+      <c r="H54">
+        <v>0.67229432624100005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0.80834752981260605</v>
+      </c>
+      <c r="D55">
+        <v>0.77834745308499997</v>
+      </c>
+      <c r="E55">
+        <v>0.80749574105621802</v>
+      </c>
+      <c r="F55">
+        <v>0.76945023612200003</v>
+      </c>
+      <c r="G55">
+        <v>0.79045996592844903</v>
+      </c>
+      <c r="H55">
+        <v>0.672980573543</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0.81026979982593506</v>
+      </c>
+      <c r="D56">
+        <v>0.780925556568</v>
+      </c>
+      <c r="E56">
+        <v>0.811140121845082</v>
+      </c>
+      <c r="F56">
+        <v>0.77809250050900003</v>
+      </c>
+      <c r="G56">
+        <v>0.79721496953872895</v>
+      </c>
+      <c r="H56">
+        <v>0.67666473429999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0.814946619217081</v>
+      </c>
+      <c r="D57">
+        <v>0.78302694569599995</v>
+      </c>
+      <c r="E57">
+        <v>0.81850533807829096</v>
+      </c>
+      <c r="F57">
+        <v>0.78141562550900001</v>
+      </c>
+      <c r="G57">
+        <v>0.79982206405693901</v>
+      </c>
+      <c r="H57">
+        <v>0.68121212121200003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>0.82074613284804299</v>
+      </c>
+      <c r="D58">
+        <v>0.78904760872799995</v>
+      </c>
+      <c r="E58">
+        <v>0.81619654231119199</v>
+      </c>
+      <c r="F58">
+        <v>0.77275857453300001</v>
+      </c>
+      <c r="G58">
+        <v>0.79981801637852501</v>
+      </c>
+      <c r="H58">
+        <v>0.68561099365800005</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>0.82309124767225295</v>
+      </c>
+      <c r="D59">
+        <v>0.79176159150900005</v>
+      </c>
+      <c r="E59">
+        <v>0.820297951582867</v>
+      </c>
+      <c r="F59">
+        <v>0.77796179097100004</v>
+      </c>
+      <c r="G59">
+        <v>0.80726256983240197</v>
+      </c>
+      <c r="H59">
+        <v>0.68796899224800001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>0.82554814108674901</v>
+      </c>
+      <c r="D60">
+        <v>0.79287439731700005</v>
+      </c>
+      <c r="E60">
+        <v>0.81792183031458499</v>
+      </c>
+      <c r="F60">
+        <v>0.78272348630199995</v>
+      </c>
+      <c r="G60">
+        <v>0.81506196377502305</v>
+      </c>
+      <c r="H60">
+        <v>0.69062950058100003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0.82421875</v>
+      </c>
+      <c r="D61">
+        <v>0.79566157764599998</v>
+      </c>
+      <c r="E61">
+        <v>0.8193359375</v>
+      </c>
+      <c r="F61">
+        <v>0.78703361413600004</v>
+      </c>
+      <c r="G61">
+        <v>0.8134765625</v>
+      </c>
+      <c r="H61">
+        <v>0.69166829268300001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>0.82582582582582498</v>
+      </c>
+      <c r="D62">
+        <v>0.79733897205000004</v>
+      </c>
+      <c r="E62">
+        <v>0.83183183183183096</v>
+      </c>
+      <c r="F62">
+        <v>0.78551489789899998</v>
+      </c>
+      <c r="G62">
+        <v>0.81281281281281204</v>
+      </c>
+      <c r="H62">
+        <v>0.69295384615400002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>0.82751540041067695</v>
+      </c>
+      <c r="D63">
+        <v>0.800485883643</v>
+      </c>
+      <c r="E63">
+        <v>0.82854209445585203</v>
+      </c>
+      <c r="F63">
+        <v>0.79563966548099996</v>
+      </c>
+      <c r="G63">
+        <v>0.82032854209445505</v>
+      </c>
+      <c r="H63">
+        <v>0.69616194332000003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>0.83245521601685901</v>
+      </c>
+      <c r="D64">
+        <v>0.79856911521999996</v>
+      </c>
+      <c r="E64">
+        <v>0.82824025289778702</v>
+      </c>
+      <c r="F64">
+        <v>0.79384893660199995</v>
+      </c>
+      <c r="G64">
+        <v>0.81664910432033699</v>
+      </c>
+      <c r="H64">
+        <v>0.69300711237599999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D65">
+        <v>0.79733025989299999</v>
+      </c>
+      <c r="E65">
+        <v>0.837662337662337</v>
+      </c>
+      <c r="F65">
+        <v>0.79193264101399996</v>
+      </c>
+      <c r="G65">
+        <v>0.81493506493506496</v>
+      </c>
+      <c r="H65">
+        <v>0.69335735735699999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>0.83092324805339202</v>
+      </c>
+      <c r="D66">
+        <v>0.79856799196700001</v>
+      </c>
+      <c r="E66">
+        <v>0.82981090100111199</v>
+      </c>
+      <c r="F66">
+        <v>0.79604971280100001</v>
+      </c>
+      <c r="G66">
+        <v>0.82647385984427102</v>
+      </c>
+      <c r="H66">
+        <v>0.70461587301600004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analysis/algorithms.xlsx
+++ b/analysis/algorithms.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13088" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Algorithms ranking" sheetId="1" r:id="rId1"/>
-    <sheet name="Algorithms for N" sheetId="3" r:id="rId2"/>
-    <sheet name="Arkusz1" sheetId="4" r:id="rId3"/>
+    <sheet name="Ranking" sheetId="1" r:id="rId1"/>
+    <sheet name="Predictions" sheetId="3" r:id="rId2"/>
+    <sheet name="Propability" sheetId="4" r:id="rId3"/>
+    <sheet name="Non-zero" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>N = 1</t>
   </si>
@@ -94,13 +95,16 @@
     <t>Prediction efficiency for different decomposition and classification algorithms of number of learning samples</t>
   </si>
   <si>
-    <t>PCA_GaussianNB_prop</t>
+    <t>PCA_GaussianNB
+propability</t>
   </si>
   <si>
-    <t>FastICA_GaussianNB_prop</t>
+    <t>FastICA_GaussianNB
+propability</t>
   </si>
   <si>
-    <t>FastICA_KNeighborsClassifier_prop</t>
+    <t>FastICA_KNeighborsClassifier
+propablity</t>
   </si>
 </sst>
 </file>
@@ -142,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -242,26 +246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -310,11 +294,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -349,36 +346,60 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +499,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Algorithms for N'!$C$4</c:f>
+              <c:f>Predictions!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -501,7 +522,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:f>Predictions!$B$5:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -702,7 +723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$C$5:$C$68</c:f>
+              <c:f>Predictions!$C$5:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
@@ -913,7 +934,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Algorithms for N'!$D$4</c:f>
+              <c:f>Predictions!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +957,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:f>Predictions!$B$5:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1137,7 +1158,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$D$5:$D$68</c:f>
+              <c:f>Predictions!$D$5:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1348,7 +1369,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Algorithms for N'!$E$4</c:f>
+              <c:f>Predictions!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1371,7 +1392,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:f>Predictions!$B$5:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1572,7 +1593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$E$5:$E$68</c:f>
+              <c:f>Predictions!$E$5:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1783,7 +1804,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Algorithms for N'!$F$4</c:f>
+              <c:f>Predictions!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1806,7 +1827,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:f>Predictions!$B$5:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -2007,7 +2028,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$F$5:$F$68</c:f>
+              <c:f>Predictions!$F$5:$F$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
@@ -2218,7 +2239,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Algorithms for N'!$G$4</c:f>
+              <c:f>Predictions!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2241,7 +2262,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$B$5:$B$68</c:f>
+              <c:f>Predictions!$B$5:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -2442,7 +2463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Algorithms for N'!$G$5:$G$68</c:f>
+              <c:f>Predictions!$G$5:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
@@ -2865,7 +2886,51 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Correct</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> predictions versus prediction propability</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="pl-PL" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>in function of used algorithms</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7444446094001563E-2"/>
+          <c:y val="4.6014778559701201E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2897,7 +2962,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0412591240423941E-2"/>
+          <c:y val="0.23246227892374763"/>
+          <c:w val="0.90983316036766149"/>
+          <c:h val="0.70109320899853766"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2906,7 +2981,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$C$2</c:f>
+              <c:f>Propability!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2929,7 +3004,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:f>Propability!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -3130,9 +3205,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$3:$C$66</c:f>
+              <c:f>Propability!$C$3:$C$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0.23160873080032299</c:v>
@@ -3341,11 +3416,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$D$2</c:f>
+              <c:f>Propability!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA_GaussianNB_prop</c:v>
+                  <c:v>PCA_GaussianNB
+propability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3365,7 +3441,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:f>Propability!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -3566,9 +3642,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$3:$D$66</c:f>
+              <c:f>Propability!$D$3:$D$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0.23170480313299999</c:v>
@@ -3777,7 +3853,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$2</c:f>
+              <c:f>Propability!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3800,7 +3876,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:f>Propability!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -4001,9 +4077,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$3:$E$66</c:f>
+              <c:f>Propability!$E$3:$E$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>3.03152789005658E-2</c:v>
@@ -4212,11 +4288,12 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$F$2</c:f>
+              <c:f>Propability!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FastICA_GaussianNB_prop</c:v>
+                  <c:v>FastICA_GaussianNB
+propability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4236,7 +4313,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:f>Propability!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -4437,9 +4514,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$3:$F$66</c:f>
+              <c:f>Propability!$F$3:$F$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>2.9898989899E-2</c:v>
@@ -4648,7 +4725,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$2</c:f>
+              <c:f>Propability!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4671,7 +4748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:f>Propability!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -4872,9 +4949,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$3:$G$66</c:f>
+              <c:f>Propability!$G$3:$G$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>4.6483427647534298E-2</c:v>
@@ -5083,11 +5160,12 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$H$2</c:f>
+              <c:f>Propability!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FastICA_KNeighborsClassifier_prop</c:v>
+                  <c:v>FastICA_KNeighborsClassifier
+propablity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5107,7 +5185,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$3:$B$66</c:f>
+              <c:f>Propability!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
@@ -5308,9 +5386,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$H$3:$H$66</c:f>
+              <c:f>Propability!$H$3:$H$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>4.2898371469800002E-2</c:v>
@@ -5595,7 +5673,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5627,6 +5705,2464 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="829674879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52654771251866916"/>
+          <c:y val="2.2459076695438413E-2"/>
+          <c:w val="0.45648856568938995"/>
+          <c:h val="0.14708372929852567"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Number of potential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> predictions with non-zero propability in function of number of learning samples per voice</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-zero'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$C$3:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1.1589280560699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.04287397433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.60881443299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2456798245599998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9148756998900001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.41284831846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6959747545599999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9082895365499999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8431990232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9120299625500001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1025383043900003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3142267502599996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3756802993899999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5279835841300002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3379607843099999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5804819277100002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0549397590399998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.33463414634</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3925925925899998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3230379746800001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2789943389899996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4914490772400004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4831719298200001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3024504504500003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2135579415000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3496194824999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.3050391236300003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3847887323899997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1931511387200002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3107416879800002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3364969271299998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2949344188199996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2885314685299996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3249423076899998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2168948412700002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3016180235499997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3051718667400003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.30166120219</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2720225988699996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1790064289900002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3324258923199999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3817669172900002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3100259740300002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2400134680099999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1918798043300001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3841944847600001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3385369532400002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.28949019608</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.2760163265299997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.2686224489800004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2726063829800003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.23831637373</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1713236714999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2934747474700004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.1119238900599999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.1284606866000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0981649245099998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.1582195121999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0411025641</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0391093117399999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9863157894699999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0812012011999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0580634920599996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBBC-40FF-AEC3-D31038E4C273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-zero'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$D$3:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06409004839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9997766322999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9630087719299998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.33824860022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3856966369300001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6301309022899999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0595938843799999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8343003662999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9693832709099999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2117926455600001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3532183908000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3278695536000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5465663474699998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.64334453782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7443201376899999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7258125183699997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6083047274900002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6923518518499998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6755126582299997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.88713404739</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6513153513200001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5948530417000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7479228070200001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8891171171199996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.66166604961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.40332572298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5828247261300001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.52960965795</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5297722567300003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6649701619800004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6571027216900003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5486928991399997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6206433566399996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7378557692300003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6581646825399998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.59938556068</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6632681121099999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5069508196700001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6580451977399999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5302045587400004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6683000605</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6940601503800004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7257532467500001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5491313131300002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6504122990900001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6672278664700002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6423981900499998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7067921568599997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5400653061199998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.66455782313</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.7284574468100002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5830712303399999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.6113816425099996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4801212121200003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5455813953500002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5396013288999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.6010452961699997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5425609756099998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5061538461500001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.6729554655900003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.5043812233300002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.5698498498499998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.4579047619000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBBC-40FF-AEC3-D31038E4C273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-zero'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA_GaussianNB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$E$3:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0832863454699999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0427190721600001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4529166666700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86908846585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.94518416838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1505843852300002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0569851887200001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0905641025600001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1760249687900002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2764300306399998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.50639498433</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4993744988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4921422708600001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5732436974800001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6262822719400001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5831854246299999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5658777476700001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5703950617300002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5305253164599999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.52103862382</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5435964036000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5381886534500002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.60790877193</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5754882882899999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.55569048501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.54248858447</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.58335680751</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5605794768600001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5594534161500002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5490025575400002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6058999121999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.58689280868</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5854731934699999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5778653846199999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5912698412699999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6508141320999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6129349550500001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.63873224044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6380338983099998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5932554061999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5648517846300001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6063784461199999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5765064935100002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5928080808099998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5615793151599999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6008708272900001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5793212669700001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5436549019600001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5241142857100001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.49482993197</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4942730496499999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4920074005599999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5131014492800001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.52894949495</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.49919661734</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4828792912500002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.4943554006999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.5132439024400002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.5161025641000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.4739541160599998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5054338549100001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.4984984985000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4367936507899999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBBC-40FF-AEC3-D31038E4C273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-zero'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastICA_KNeighbors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$F$3:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1851335998300003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1204209621999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9270570175400001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8813527435599999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6978860672599998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5547966339400001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4516674629700002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.36215384615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.20861423221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0904085801800001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0154649947799999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9755680299399998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9315348837199999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8681792717099999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.834205393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8100440787499998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.75404396266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7144444444400002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6913924050600002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6682440766000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6085714285699999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.57227614491</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5718456140399999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5362450450499998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4975194372499998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4846270928499998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4619092331800001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4080563380300002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4356024844699999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4245183290700001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4366637401200002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.43484396201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4189930069900001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4069326923099998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4058134920600001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.38818228367</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3492860920099998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3491038251399998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3369039547999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3277147866700001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3105747126399998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2935213032599999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2794545454500001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2612929292900001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2557651991599998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2342089985500002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2209351432900002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.22216470588</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1977959183700002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.18794217687</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1843439716300002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1695652173900002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1566763285000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1450505050499999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1292177589899999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1266666666699998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.11828106852</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1211707317099999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1152307692300001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1017543859600001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1054907539099998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.10618618619</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0724761904800002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBBC-40FF-AEC3-D31038E4C273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-zero'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FactorAnalysis_KNeighbors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$B$3:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Non-zero'!$G$3:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.24580685883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1657903780099996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0151578947399997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9234759238499999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7773690231099999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6739036933100002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5664787386499999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5512673992699999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4111860174799999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.30659346272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.21231452456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.21054263566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1668454172399998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.17685154062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0189443488199998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0404172788700001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9330021078000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9203765432100002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8899367088600001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9594092826999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8157509157499998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8132330827100001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.84244210526</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8659387387400002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7559940762699999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.67143074581</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.69917840376</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7033400402400001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6688364389200001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.68023017903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.71561018437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6808955223900002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6614545454499998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6501923076899998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6164880952399998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5818330773199998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.57314648334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5628961748600001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5762259887000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5277264757500002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5644041137300002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5496616541399999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5381298701300001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4925925925899999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4602375960899998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.46220609579</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4418099547500001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4528313725499999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.43224489796</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4149489795900001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4319503546100001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.41047178538</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.4124444444400002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3896565656600002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3656448203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.36677740864</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.3611382113800001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3680487804900001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3432307692299998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.3654520917699999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.3202844950200001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3159759759799998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.3159047619000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FBBC-40FF-AEC3-D31038E4C273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="371408383"/>
+        <c:axId val="371397151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="371408383"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371397151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="371397151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371408383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5748,6 +8284,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6819,20 +9395,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>643801</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29440</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>3895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6859,19 +9951,54 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>445292</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:colOff>750093</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>519111</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>645317</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7155,7 +10282,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7171,19 +10298,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
@@ -7802,52 +10929,48 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="3" max="7" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19"/>
+      <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:11" ht="100.9" x14ac:dyDescent="0.45">
+      <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9155,1516 +12278,2861 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H66"/>
+  <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="8" width="12.59765625" customWidth="1"/>
     <col min="9" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="103.15" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>0.23160873080032299</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>0.23170480313299999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>3.03152789005658E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>2.9898989899E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>4.6483427647534298E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="14">
         <v>4.2898371469800002E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>9.1057574520212306E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>9.0758741793599995E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>5.1857901184156799E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
         <v>4.8539854487000003E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>0.166598611678236</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="14">
         <v>0.16245318746099999</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>0.21163366336633599</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>0.212286444563</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>0.14315181518151801</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
         <v>0.120694869249</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <v>0.32673267326732602</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>0.22196563573899999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>0.36223426427678201</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>0.35820023402700002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <v>0.216340141725719</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="13">
         <v>0.21985685356500001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <v>0.37098791162984501</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="14">
         <v>0.26256666666700001</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>0.46798652064026902</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>0.46098438265800001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>0.32055602358887902</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
         <v>0.33552235004800002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>0.444818871103622</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="14">
         <v>0.30295363941800002</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>0.53426990208599401</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="13">
         <v>0.52538502171500001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="13">
         <v>0.46956151553852699</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <v>0.44385090546599998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>0.46530438484461401</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="14">
         <v>0.33350995195599997</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9">
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>0.60413080895008597</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="13">
         <v>0.58269136626499995</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="13">
         <v>0.53786574870912196</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>0.50702863651999996</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>0.51247848537005103</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="14">
         <v>0.36566619915800003</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>0.63070900391474505</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="13">
         <v>0.61340458359000005</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="13">
         <v>0.54545454545454497</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="13">
         <v>0.52391977139000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>0.52501087429317095</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="14">
         <v>0.382238891543</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11">
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>0.654793315743183</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>0.63919575989400002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="13">
         <v>0.58970976253298102</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="13">
         <v>0.567579236845</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <v>0.55233069481090502</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="14">
         <v>0.39637606837599998</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12">
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>0.65451311694086201</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>0.64194975116300002</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="13">
         <v>0.610048910626945</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
         <v>0.57478411673499996</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>0.58470431302801196</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="14">
         <v>0.42866317103599999</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>0.68435251798561103</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <v>0.662109306791</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="13">
         <v>0.62005395683453202</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="13">
         <v>0.60812259198499996</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>0.58678057553956797</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="14">
         <v>0.44815730337100002</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14">
+      <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>0.68622100954979504</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <v>0.66548142558500001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="13">
         <v>0.62391996361982704</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="13">
         <v>0.61970909517299999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>0.59708958617553398</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <v>0.46189864158799998</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15">
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>0.71113155473780998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="13">
         <v>0.68531581955099996</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="13">
         <v>0.66421343146274103</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="13">
         <v>0.625306075071</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>0.60579576816927305</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="14">
         <v>0.47329270248600003</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16">
+      <c r="B16" s="12">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>0.73057235923685404</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>0.69997183009099995</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="13">
         <v>0.66123778501628605</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="13">
         <v>0.637788425622</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>0.61423918101442498</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="14">
         <v>0.48633871409000001</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17">
+      <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>0.72928436911487704</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="13">
         <v>0.70297375890900005</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="13">
         <v>0.68785310734463201</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="13">
         <v>0.660840431472</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>0.63323917137476404</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="14">
         <v>0.50221736694700003</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18">
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>0.72844211529299596</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <v>0.69679559829299997</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="13">
         <v>0.69842782277274895</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="13">
         <v>0.65067250893799999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>0.65269175797999002</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="14">
         <v>0.50982214572600004</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19">
+      <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>0.73625843780135003</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="13">
         <v>0.70626973978999996</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="13">
         <v>0.70395371263259399</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="13">
         <v>0.663294822678</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13">
         <v>0.66875602700096404</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="14">
         <v>0.51943226564800005</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20">
+      <c r="B20" s="12">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>0.74036115178135598</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <v>0.71183424463699996</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="13">
         <v>0.70082967301122501</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="13">
         <v>0.67319761660999999</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="13">
         <v>0.66715470961444601</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="14">
         <v>0.532698584764</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21">
+      <c r="B21" s="12">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>0.73666007905138298</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="13">
         <v>0.71205496109900002</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="13">
         <v>0.69614624505928802</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="13">
         <v>0.67033358728500003</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="13">
         <v>0.67638339920948598</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="14">
         <v>0.54145308642000001</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22">
+      <c r="B22" s="12">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>0.74787393696848403</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="13">
         <v>0.71928657311499999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="13">
         <v>0.72436218109054495</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="13">
         <v>0.67929542682699995</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13">
         <v>0.69084542271135496</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="14">
         <v>0.55151392405099997</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23">
+      <c r="B23" s="12">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="13">
         <v>0.74164133738601801</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="13">
         <v>0.71938679810399997</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="13">
         <v>0.72188449848024305</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="13">
         <v>0.69046472698600003</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="13">
         <v>0.69503546099290703</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="14">
         <v>0.55423823433999997</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24">
+      <c r="B24" s="12">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="13">
         <v>0.74397126731657204</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="13">
         <v>0.72139566154099999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="13">
         <v>0.72857875833760899</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="13">
         <v>0.69398499439299999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="13">
         <v>0.70497691123653095</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="14">
         <v>0.56504562104599998</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25">
+      <c r="B25" s="12">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="13">
         <v>0.74324324324324298</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="13">
         <v>0.72426116206299995</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="13">
         <v>0.74064449064449001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="13">
         <v>0.71142596800699998</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="13">
         <v>0.71933471933471904</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="14">
         <v>0.57530416951499996</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26">
+      <c r="B26" s="12">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="13">
         <v>0.75250131648235896</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="13">
         <v>0.72789932877600005</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="13">
         <v>0.75302790942601305</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="13">
         <v>0.71219399691899998</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="13">
         <v>0.72037914691943095</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="14">
         <v>0.57846596491199997</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27">
+      <c r="B27" s="12">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="13">
         <v>0.75613660618996803</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="13">
         <v>0.73566775803600004</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="13">
         <v>0.75560298826040495</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="13">
         <v>0.72616691742100004</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="13">
         <v>0.72518676627534595</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="14">
         <v>0.58394666666700001</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28">
+      <c r="B28" s="12">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="13">
         <v>0.76149269875608405</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="13">
         <v>0.73763076461699995</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="13">
         <v>0.77122769064359098</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="13">
         <v>0.71997255621699996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="13">
         <v>0.74364521362898806</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="14">
         <v>0.59541058867100005</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29">
+      <c r="B29" s="12">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="13">
         <v>0.76151315789473595</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="13">
         <v>0.73860789420600004</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="13">
         <v>0.75822368421052599</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="13">
         <v>0.725475739264</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="13">
         <v>0.74671052631578905</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="14">
         <v>0.59786453576900001</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30">
+      <c r="B30" s="12">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="13">
         <v>0.76876042245692</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="13">
         <v>0.74186043343800001</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="13">
         <v>0.76042245692051103</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="13">
         <v>0.72982316146899995</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="13">
         <v>0.75097276264591395</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="14">
         <v>0.60305790297299999</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31">
+      <c r="B31" s="12">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="13">
         <v>0.77733934611048405</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="13">
         <v>0.74657641332400004</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="13">
         <v>0.76155580608793605</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="13">
         <v>0.726707815925</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="13">
         <v>0.74239007891770004</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="14">
         <v>0.61224144869200003</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32">
+      <c r="B32" s="12">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="13">
         <v>0.77644368210405901</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="13">
         <v>0.74823053103899995</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="13">
         <v>0.767295597484276</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="13">
         <v>0.73538571967599997</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="13">
         <v>0.748999428244711</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="14">
         <v>0.60967619047599997</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33">
+      <c r="B33" s="12">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <v>0.76914153132250496</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="13">
         <v>0.74505480011799996</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="13">
         <v>0.77494199535962804</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="13">
         <v>0.73433168341599997</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="13">
         <v>0.75348027842227305</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="14">
         <v>0.61364194373400005</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34">
+      <c r="B34" s="12">
         <v>32</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="13">
         <v>0.77575044143613803</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="13">
         <v>0.74604899199999997</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="13">
         <v>0.76456739258387196</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="13">
         <v>0.72965931661299999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="13">
         <v>0.75515008828722696</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="14">
         <v>0.61407199297600001</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35">
+      <c r="B35" s="12">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="13">
         <v>0.77299880525686904</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="13">
         <v>0.74839722242499995</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="13">
         <v>0.75925925925925897</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="13">
         <v>0.73220542823400003</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="13">
         <v>0.74432497013142096</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="14">
         <v>0.61356309362299999</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36">
+      <c r="B36" s="12">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="13">
         <v>0.77562158884172205</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="13">
         <v>0.74954995367800004</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="13">
         <v>0.77198302001212804</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="13">
         <v>0.73812367516699995</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="13">
         <v>0.762280169799878</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="14">
         <v>0.61777342657300005</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37">
+      <c r="B37" s="12">
         <v>35</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="13">
         <v>0.77216748768472898</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="13">
         <v>0.75012260668099995</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="13">
         <v>0.77278325123152702</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="13">
         <v>0.73644896009100003</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="13">
         <v>0.76354679802955605</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="14">
         <v>0.62396346153799997</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38">
+      <c r="B38" s="12">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="13">
         <v>0.78236397748592801</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="13">
         <v>0.75303885043899998</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="13">
         <v>0.77923702313946197</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="13">
         <v>0.73980062295100002</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="13">
         <v>0.75672295184490301</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="14">
         <v>0.62295833333299999</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B39">
+      <c r="B39" s="12">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="13">
         <v>0.77445997458703897</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="13">
         <v>0.74814256479300001</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="13">
         <v>0.78589580686149896</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="13">
         <v>0.74540175950800003</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="13">
         <v>0.75222363405336701</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="14">
         <v>0.62610547875099998</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B40">
+      <c r="B40" s="12">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="13">
         <v>0.77340219496449303</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="13">
         <v>0.74958205527900001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="13">
         <v>0.76888315041962496</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="13">
         <v>0.73910887935500003</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="13">
         <v>0.75726275016139399</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="14">
         <v>0.63142887361199995</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B41">
+      <c r="B41" s="12">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="13">
         <v>0.78018372703411998</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="13">
         <v>0.75223380668200002</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="13">
         <v>0.77427821522309703</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="13">
         <v>0.74118016030199996</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="13">
         <v>0.76115485564304397</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="14">
         <v>0.634832786885</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42">
+      <c r="B42" s="12">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="13">
         <v>0.78652434956637696</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="13">
         <v>0.75539704161099996</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="13">
         <v>0.78252168112074705</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="13">
         <v>0.74031267639200005</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="13">
         <v>0.76384256170780496</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="14">
         <v>0.63861694915300005</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43">
+      <c r="B43" s="12">
         <v>41</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <v>0.79443690637720399</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="13">
         <v>0.76171787948400005</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="13">
         <v>0.78493894165535905</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="13">
         <v>0.74902343445899999</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="13">
         <v>0.76187245590230601</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="14">
         <v>0.64007948568100004</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44">
+      <c r="B44" s="12">
         <v>42</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="13">
         <v>0.79710144927536197</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="13">
         <v>0.76577124994900003</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="13">
         <v>0.78674948240165599</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="13">
         <v>0.73982974217599995</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="13">
         <v>0.76604554865424401</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="14">
         <v>0.641188142771</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B45">
+      <c r="B45" s="12">
         <v>43</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="13">
         <v>0.79845505617977497</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="13">
         <v>0.76470630538200002</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="13">
         <v>0.788623595505618</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="13">
         <v>0.74162584435900003</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="13">
         <v>0.76896067415730296</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="14">
         <v>0.64472431077699999</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B46">
+      <c r="B46" s="12">
         <v>44</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="13">
         <v>0.80271622587562497</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="13">
         <v>0.76831503450799998</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="13">
         <v>0.79270907791279399</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="13">
         <v>0.75000828632299998</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="13">
         <v>0.77626876340243001</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="14">
         <v>0.65095584415600005</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47">
+      <c r="B47" s="12">
         <v>45</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="13">
         <v>0.79839883551673896</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="13">
         <v>0.76595880710999997</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="13">
         <v>0.79403202328966505</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="13">
         <v>0.74101494228800002</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="13">
         <v>0.77510917030567605</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="14">
         <v>0.65420336700299997</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48">
+      <c r="B48" s="12">
         <v>46</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="13">
         <v>0.80874722016308298</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="13">
         <v>0.76799421413699998</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="13">
         <v>0.792438843587842</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="13">
         <v>0.75418932222000001</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="13">
         <v>0.77464788732394296</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="14">
         <v>0.65505800139799997</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49">
+      <c r="B49" s="12">
         <v>47</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="13">
         <v>0.80891238670694798</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="13">
         <v>0.773236180499</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="13">
         <v>0.79984894259818695</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="13">
         <v>0.76339978812800002</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="13">
         <v>0.78096676737160098</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="14">
         <v>0.65896081277200003</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50">
+      <c r="B50" s="12">
         <v>48</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="13">
         <v>0.80523479599692005</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="13">
         <v>0.77629905703400004</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="13">
         <v>0.79522709776751299</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="13">
         <v>0.75758926946899996</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="13">
         <v>0.78752886836027702</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="14">
         <v>0.66210859728500004</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51">
+      <c r="B51" s="12">
         <v>49</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="13">
         <v>0.81240188383045497</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="13">
         <v>0.77588991294599996</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="13">
         <v>0.80062794348508604</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="13">
         <v>0.75214085570400002</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="13">
         <v>0.77786499215070604</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="14">
         <v>0.65924078431400002</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B52">
+      <c r="B52" s="12">
         <v>50</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="13">
         <v>0.80704563650920702</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="13">
         <v>0.77702773511000001</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="13">
         <v>0.79903923138510802</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="13">
         <v>0.76375136329000004</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="13">
         <v>0.79263410728582795</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="14">
         <v>0.66762775510200001</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53">
+      <c r="B53" s="12">
         <v>51</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="13">
         <v>0.80555555555555503</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="13">
         <v>0.77579428424800001</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="13">
         <v>0.79901960784313697</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="13">
         <v>0.75922291593400004</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="13">
         <v>0.79901960784313697</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="14">
         <v>0.67179251700700005</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54">
+      <c r="B54" s="12">
         <v>52</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="13">
         <v>0.80650542118432</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="13">
         <v>0.77621153140499999</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="13">
         <v>0.81234361968306901</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="13">
         <v>0.76257649106600001</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="13">
         <v>0.798165137614678</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="14">
         <v>0.67229432624100005</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55">
+      <c r="B55" s="12">
         <v>53</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="13">
         <v>0.80834752981260605</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="13">
         <v>0.77834745308499997</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="13">
         <v>0.80749574105621802</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="13">
         <v>0.76945023612200003</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="13">
         <v>0.79045996592844903</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="14">
         <v>0.672980573543</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B56">
+      <c r="B56" s="12">
         <v>54</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="13">
         <v>0.81026979982593506</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="13">
         <v>0.780925556568</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="13">
         <v>0.811140121845082</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="13">
         <v>0.77809250050900003</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="13">
         <v>0.79721496953872895</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="14">
         <v>0.67666473429999996</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B57">
+      <c r="B57" s="12">
         <v>55</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="13">
         <v>0.814946619217081</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="13">
         <v>0.78302694569599995</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="13">
         <v>0.81850533807829096</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="13">
         <v>0.78141562550900001</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="13">
         <v>0.79982206405693901</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="14">
         <v>0.68121212121200003</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B58">
+      <c r="B58" s="12">
         <v>56</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="13">
         <v>0.82074613284804299</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="13">
         <v>0.78904760872799995</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="13">
         <v>0.81619654231119199</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="13">
         <v>0.77275857453300001</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="13">
         <v>0.79981801637852501</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="14">
         <v>0.68561099365800005</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B59">
+      <c r="B59" s="12">
         <v>57</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="13">
         <v>0.82309124767225295</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="13">
         <v>0.79176159150900005</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="13">
         <v>0.820297951582867</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="13">
         <v>0.77796179097100004</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="13">
         <v>0.80726256983240197</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="14">
         <v>0.68796899224800001</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B60">
+      <c r="B60" s="12">
         <v>58</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="13">
         <v>0.82554814108674901</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="13">
         <v>0.79287439731700005</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="13">
         <v>0.81792183031458499</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="13">
         <v>0.78272348630199995</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="13">
         <v>0.81506196377502305</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="14">
         <v>0.69062950058100003</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B61">
+      <c r="B61" s="12">
         <v>59</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="13">
         <v>0.82421875</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="13">
         <v>0.79566157764599998</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="13">
         <v>0.8193359375</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="13">
         <v>0.78703361413600004</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="13">
         <v>0.8134765625</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="14">
         <v>0.69166829268300001</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B62">
+      <c r="B62" s="12">
         <v>60</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="13">
         <v>0.82582582582582498</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="13">
         <v>0.79733897205000004</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="13">
         <v>0.83183183183183096</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="13">
         <v>0.78551489789899998</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="13">
         <v>0.81281281281281204</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="14">
         <v>0.69295384615400002</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63">
+      <c r="B63" s="12">
         <v>61</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="13">
         <v>0.82751540041067695</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="13">
         <v>0.800485883643</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="13">
         <v>0.82854209445585203</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="13">
         <v>0.79563966548099996</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="13">
         <v>0.82032854209445505</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="14">
         <v>0.69616194332000003</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64">
+      <c r="B64" s="12">
         <v>62</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="13">
         <v>0.83245521601685901</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="13">
         <v>0.79856911521999996</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="13">
         <v>0.82824025289778702</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="13">
         <v>0.79384893660199995</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="13">
         <v>0.81664910432033699</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="14">
         <v>0.69300711237599999</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B65">
+      <c r="B65" s="12">
         <v>63</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="13">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="13">
         <v>0.79733025989299999</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="13">
         <v>0.837662337662337</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="13">
         <v>0.79193264101399996</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="13">
         <v>0.81493506493506496</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="14">
         <v>0.69335735735699999</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B66">
+    <row r="66" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="15">
         <v>64</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="16">
         <v>0.83092324805339202</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="16">
         <v>0.79856799196700001</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="16">
         <v>0.82981090100111199</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="16">
         <v>0.79604971280100001</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="16">
         <v>0.82647385984427102</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="17">
         <v>0.70461587301600004</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:H66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="7" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="98.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1.1589280560699999</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>5</v>
+      </c>
+      <c r="G3" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.04287397433</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.06409004839</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1.0832863454699999</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4.1851335998300003</v>
+      </c>
+      <c r="G4" s="22">
+        <v>4.24580685883</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1.60881443299</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1.9997766322999999</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2.0427190721600001</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4.1204209621999999</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4.1657903780099996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2.2456798245599998</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2.9630087719299998</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2.4529166666700002</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3.9270570175400001</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4.0151578947399997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2.9148756998900001</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3.33824860022</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2.86908846585</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3.8813527435599999</v>
+      </c>
+      <c r="G7" s="22">
+        <v>3.9234759238499999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3.41284831846</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3.3856966369300001</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2.94518416838</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3.6978860672599998</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3.7773690231099999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3.6959747545599999</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3.6301309022899999</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3.1505843852300002</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3.5547966339400001</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3.6739036933100002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3.9082895365499999</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4.0595938843799999</v>
+      </c>
+      <c r="E10" s="21">
+        <v>3.0569851887200001</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3.4516674629700002</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3.5664787386499999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3.8431990232</v>
+      </c>
+      <c r="D11" s="21">
+        <v>3.8343003662999999</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3.0905641025600001</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3.36215384615</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3.5512673992699999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3.9120299625500001</v>
+      </c>
+      <c r="D12" s="21">
+        <v>3.9693832709099999</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3.1760249687900002</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3.20861423221</v>
+      </c>
+      <c r="G12" s="22">
+        <v>3.4111860174799999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4.1025383043900003</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4.2117926455600001</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3.2764300306399998</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3.0904085801800001</v>
+      </c>
+      <c r="G13" s="22">
+        <v>3.30659346272</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>4.3142267502599996</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4.3532183908000004</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3.50639498433</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3.0154649947799999</v>
+      </c>
+      <c r="G14" s="22">
+        <v>3.21231452456</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="21">
+        <v>4.3756802993899999</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4.3278695536000003</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3.4993744988</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2.9755680299399998</v>
+      </c>
+      <c r="G15" s="22">
+        <v>3.21054263566</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4.5279835841300002</v>
+      </c>
+      <c r="D16" s="21">
+        <v>4.5465663474699998</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3.4921422708600001</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2.9315348837199999</v>
+      </c>
+      <c r="G16" s="22">
+        <v>3.1668454172399998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21">
+        <v>4.3379607843099999</v>
+      </c>
+      <c r="D17" s="21">
+        <v>4.64334453782</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3.5732436974800001</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2.8681792717099999</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3.17685154062</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="21">
+        <v>4.5804819277100002</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4.7443201376899999</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3.6262822719400001</v>
+      </c>
+      <c r="F18" s="21">
+        <v>2.834205393</v>
+      </c>
+      <c r="G18" s="22">
+        <v>3.0189443488199998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="21">
+        <v>4.0549397590399998</v>
+      </c>
+      <c r="D19" s="21">
+        <v>4.7258125183699997</v>
+      </c>
+      <c r="E19" s="21">
+        <v>3.5831854246299999</v>
+      </c>
+      <c r="F19" s="21">
+        <v>2.8100440787499998</v>
+      </c>
+      <c r="G19" s="22">
+        <v>3.0404172788700001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4.33463414634</v>
+      </c>
+      <c r="D20" s="21">
+        <v>4.6083047274900002</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3.5658777476700001</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2.75404396266</v>
+      </c>
+      <c r="G20" s="22">
+        <v>2.9330021078000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21">
+        <v>4.3925925925899998</v>
+      </c>
+      <c r="D21" s="21">
+        <v>4.6923518518499998</v>
+      </c>
+      <c r="E21" s="21">
+        <v>3.5703950617300002</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2.7144444444400002</v>
+      </c>
+      <c r="G21" s="22">
+        <v>2.9203765432100002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="21">
+        <v>4.3475000000000001</v>
+      </c>
+      <c r="D22" s="21">
+        <v>4.6755126582299997</v>
+      </c>
+      <c r="E22" s="21">
+        <v>3.5305253164599999</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2.6913924050600002</v>
+      </c>
+      <c r="G22" s="22">
+        <v>2.8899367088600001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="21">
+        <v>4.3230379746800001</v>
+      </c>
+      <c r="D23" s="21">
+        <v>4.88713404739</v>
+      </c>
+      <c r="E23" s="21">
+        <v>3.52103862382</v>
+      </c>
+      <c r="F23" s="21">
+        <v>2.6682440766000002</v>
+      </c>
+      <c r="G23" s="22">
+        <v>2.9594092826999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
+        <v>22</v>
+      </c>
+      <c r="C24" s="21">
+        <v>4.2789943389899996</v>
+      </c>
+      <c r="D24" s="21">
+        <v>4.6513153513200001</v>
+      </c>
+      <c r="E24" s="21">
+        <v>3.5435964036000001</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2.6085714285699999</v>
+      </c>
+      <c r="G24" s="22">
+        <v>2.8157509157499998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="21">
+        <v>4.4914490772400004</v>
+      </c>
+      <c r="D25" s="21">
+        <v>4.5948530417000004</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3.5381886534500002</v>
+      </c>
+      <c r="F25" s="21">
+        <v>2.57227614491</v>
+      </c>
+      <c r="G25" s="22">
+        <v>2.8132330827100001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
+        <v>24</v>
+      </c>
+      <c r="C26" s="21">
+        <v>4.4831719298200001</v>
+      </c>
+      <c r="D26" s="21">
+        <v>4.7479228070200001</v>
+      </c>
+      <c r="E26" s="21">
+        <v>3.60790877193</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2.5718456140399999</v>
+      </c>
+      <c r="G26" s="22">
+        <v>2.84244210526</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21">
+        <v>4.3024504504500003</v>
+      </c>
+      <c r="D27" s="21">
+        <v>4.8891171171199996</v>
+      </c>
+      <c r="E27" s="21">
+        <v>3.5754882882899999</v>
+      </c>
+      <c r="F27" s="21">
+        <v>2.5362450450499998</v>
+      </c>
+      <c r="G27" s="22">
+        <v>2.8659387387400002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
+        <v>26</v>
+      </c>
+      <c r="C28" s="21">
+        <v>4.2135579415000004</v>
+      </c>
+      <c r="D28" s="21">
+        <v>4.66166604961</v>
+      </c>
+      <c r="E28" s="21">
+        <v>3.55569048501</v>
+      </c>
+      <c r="F28" s="21">
+        <v>2.4975194372499998</v>
+      </c>
+      <c r="G28" s="22">
+        <v>2.7559940762699999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21">
+        <v>4.3496194824999996</v>
+      </c>
+      <c r="D29" s="21">
+        <v>4.40332572298</v>
+      </c>
+      <c r="E29" s="21">
+        <v>3.54248858447</v>
+      </c>
+      <c r="F29" s="21">
+        <v>2.4846270928499998</v>
+      </c>
+      <c r="G29" s="22">
+        <v>2.67143074581</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
+        <v>28</v>
+      </c>
+      <c r="C30" s="21">
+        <v>4.3050391236300003</v>
+      </c>
+      <c r="D30" s="21">
+        <v>4.5828247261300001</v>
+      </c>
+      <c r="E30" s="21">
+        <v>3.58335680751</v>
+      </c>
+      <c r="F30" s="21">
+        <v>2.4619092331800001</v>
+      </c>
+      <c r="G30" s="22">
+        <v>2.69917840376</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
+        <v>29</v>
+      </c>
+      <c r="C31" s="21">
+        <v>4.3847887323899997</v>
+      </c>
+      <c r="D31" s="21">
+        <v>4.52960965795</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3.5605794768600001</v>
+      </c>
+      <c r="F31" s="21">
+        <v>2.4080563380300002</v>
+      </c>
+      <c r="G31" s="22">
+        <v>2.7033400402400001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
+        <v>30</v>
+      </c>
+      <c r="C32" s="21">
+        <v>4.1931511387200002</v>
+      </c>
+      <c r="D32" s="21">
+        <v>4.5297722567300003</v>
+      </c>
+      <c r="E32" s="21">
+        <v>3.5594534161500002</v>
+      </c>
+      <c r="F32" s="21">
+        <v>2.4356024844699999</v>
+      </c>
+      <c r="G32" s="22">
+        <v>2.6688364389200001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
+        <v>31</v>
+      </c>
+      <c r="C33" s="21">
+        <v>4.3107416879800002</v>
+      </c>
+      <c r="D33" s="21">
+        <v>4.6649701619800004</v>
+      </c>
+      <c r="E33" s="21">
+        <v>3.5490025575400002</v>
+      </c>
+      <c r="F33" s="21">
+        <v>2.4245183290700001</v>
+      </c>
+      <c r="G33" s="22">
+        <v>2.68023017903</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
+        <v>32</v>
+      </c>
+      <c r="C34" s="21">
+        <v>4.3364969271299998</v>
+      </c>
+      <c r="D34" s="21">
+        <v>4.6571027216900003</v>
+      </c>
+      <c r="E34" s="21">
+        <v>3.6058999121999999</v>
+      </c>
+      <c r="F34" s="21">
+        <v>2.4366637401200002</v>
+      </c>
+      <c r="G34" s="22">
+        <v>2.71561018437</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
+        <v>33</v>
+      </c>
+      <c r="C35" s="21">
+        <v>4.2949344188199996</v>
+      </c>
+      <c r="D35" s="21">
+        <v>4.5486928991399997</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3.58689280868</v>
+      </c>
+      <c r="F35" s="21">
+        <v>2.43484396201</v>
+      </c>
+      <c r="G35" s="22">
+        <v>2.6808955223900002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
+        <v>34</v>
+      </c>
+      <c r="C36" s="21">
+        <v>4.2885314685299996</v>
+      </c>
+      <c r="D36" s="21">
+        <v>4.6206433566399996</v>
+      </c>
+      <c r="E36" s="21">
+        <v>3.5854731934699999</v>
+      </c>
+      <c r="F36" s="21">
+        <v>2.4189930069900001</v>
+      </c>
+      <c r="G36" s="22">
+        <v>2.6614545454499998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
+        <v>35</v>
+      </c>
+      <c r="C37" s="21">
+        <v>4.3249423076899998</v>
+      </c>
+      <c r="D37" s="21">
+        <v>4.7378557692300003</v>
+      </c>
+      <c r="E37" s="21">
+        <v>3.5778653846199999</v>
+      </c>
+      <c r="F37" s="21">
+        <v>2.4069326923099998</v>
+      </c>
+      <c r="G37" s="22">
+        <v>2.6501923076899998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
+        <v>36</v>
+      </c>
+      <c r="C38" s="21">
+        <v>4.2168948412700002</v>
+      </c>
+      <c r="D38" s="21">
+        <v>4.6581646825399998</v>
+      </c>
+      <c r="E38" s="21">
+        <v>3.5912698412699999</v>
+      </c>
+      <c r="F38" s="21">
+        <v>2.4058134920600001</v>
+      </c>
+      <c r="G38" s="22">
+        <v>2.6164880952399998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
+        <v>37</v>
+      </c>
+      <c r="C39" s="21">
+        <v>4.3016180235499997</v>
+      </c>
+      <c r="D39" s="21">
+        <v>4.59938556068</v>
+      </c>
+      <c r="E39" s="21">
+        <v>3.6508141320999998</v>
+      </c>
+      <c r="F39" s="21">
+        <v>2.38818228367</v>
+      </c>
+      <c r="G39" s="22">
+        <v>2.5818330773199998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
+        <v>38</v>
+      </c>
+      <c r="C40" s="21">
+        <v>4.3051718667400003</v>
+      </c>
+      <c r="D40" s="21">
+        <v>4.6632681121099999</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3.6129349550500001</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2.3492860920099998</v>
+      </c>
+      <c r="G40" s="22">
+        <v>2.57314648334</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
+        <v>39</v>
+      </c>
+      <c r="C41" s="21">
+        <v>4.30166120219</v>
+      </c>
+      <c r="D41" s="21">
+        <v>4.5069508196700001</v>
+      </c>
+      <c r="E41" s="21">
+        <v>3.63873224044</v>
+      </c>
+      <c r="F41" s="21">
+        <v>2.3491038251399998</v>
+      </c>
+      <c r="G41" s="22">
+        <v>2.5628961748600001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="12">
+        <v>40</v>
+      </c>
+      <c r="C42" s="21">
+        <v>4.2720225988699996</v>
+      </c>
+      <c r="D42" s="21">
+        <v>4.6580451977399999</v>
+      </c>
+      <c r="E42" s="21">
+        <v>3.6380338983099998</v>
+      </c>
+      <c r="F42" s="21">
+        <v>2.3369039547999999</v>
+      </c>
+      <c r="G42" s="22">
+        <v>2.5762259887000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43" s="12">
+        <v>41</v>
+      </c>
+      <c r="C43" s="21">
+        <v>4.1790064289900002</v>
+      </c>
+      <c r="D43" s="21">
+        <v>4.5302045587400004</v>
+      </c>
+      <c r="E43" s="21">
+        <v>3.5932554061999999</v>
+      </c>
+      <c r="F43" s="21">
+        <v>2.3277147866700001</v>
+      </c>
+      <c r="G43" s="22">
+        <v>2.5277264757500002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
+        <v>42</v>
+      </c>
+      <c r="C44" s="21">
+        <v>4.3324258923199999</v>
+      </c>
+      <c r="D44" s="21">
+        <v>4.6683000605</v>
+      </c>
+      <c r="E44" s="21">
+        <v>3.5648517846300001</v>
+      </c>
+      <c r="F44" s="21">
+        <v>2.3105747126399998</v>
+      </c>
+      <c r="G44" s="22">
+        <v>2.5644041137300002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
+        <v>43</v>
+      </c>
+      <c r="C45" s="21">
+        <v>4.3817669172900002</v>
+      </c>
+      <c r="D45" s="21">
+        <v>4.6940601503800004</v>
+      </c>
+      <c r="E45" s="21">
+        <v>3.6063784461199999</v>
+      </c>
+      <c r="F45" s="21">
+        <v>2.2935213032599999</v>
+      </c>
+      <c r="G45" s="22">
+        <v>2.5496616541399999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
+        <v>44</v>
+      </c>
+      <c r="C46" s="21">
+        <v>4.3100259740300002</v>
+      </c>
+      <c r="D46" s="21">
+        <v>4.7257532467500001</v>
+      </c>
+      <c r="E46" s="21">
+        <v>3.5765064935100002</v>
+      </c>
+      <c r="F46" s="21">
+        <v>2.2794545454500001</v>
+      </c>
+      <c r="G46" s="22">
+        <v>2.5381298701300001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
+        <v>45</v>
+      </c>
+      <c r="C47" s="21">
+        <v>4.2400134680099999</v>
+      </c>
+      <c r="D47" s="21">
+        <v>4.5491313131300002</v>
+      </c>
+      <c r="E47" s="21">
+        <v>3.5928080808099998</v>
+      </c>
+      <c r="F47" s="21">
+        <v>2.2612929292900001</v>
+      </c>
+      <c r="G47" s="22">
+        <v>2.4925925925899999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
+        <v>46</v>
+      </c>
+      <c r="C48" s="21">
+        <v>4.1918798043300001</v>
+      </c>
+      <c r="D48" s="21">
+        <v>4.6504122990900001</v>
+      </c>
+      <c r="E48" s="21">
+        <v>3.5615793151599999</v>
+      </c>
+      <c r="F48" s="21">
+        <v>2.2557651991599998</v>
+      </c>
+      <c r="G48" s="22">
+        <v>2.4602375960899998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
+        <v>47</v>
+      </c>
+      <c r="C49" s="21">
+        <v>4.3841944847600001</v>
+      </c>
+      <c r="D49" s="21">
+        <v>4.6672278664700002</v>
+      </c>
+      <c r="E49" s="21">
+        <v>3.6008708272900001</v>
+      </c>
+      <c r="F49" s="21">
+        <v>2.2342089985500002</v>
+      </c>
+      <c r="G49" s="22">
+        <v>2.46220609579</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
+        <v>48</v>
+      </c>
+      <c r="C50" s="21">
+        <v>4.3385369532400002</v>
+      </c>
+      <c r="D50" s="21">
+        <v>4.6423981900499998</v>
+      </c>
+      <c r="E50" s="21">
+        <v>3.5793212669700001</v>
+      </c>
+      <c r="F50" s="21">
+        <v>2.2209351432900002</v>
+      </c>
+      <c r="G50" s="22">
+        <v>2.4418099547500001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
+        <v>49</v>
+      </c>
+      <c r="C51" s="21">
+        <v>4.28949019608</v>
+      </c>
+      <c r="D51" s="21">
+        <v>4.7067921568599997</v>
+      </c>
+      <c r="E51" s="21">
+        <v>3.5436549019600001</v>
+      </c>
+      <c r="F51" s="21">
+        <v>2.22216470588</v>
+      </c>
+      <c r="G51" s="22">
+        <v>2.4528313725499999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
+        <v>50</v>
+      </c>
+      <c r="C52" s="21">
+        <v>4.2760163265299997</v>
+      </c>
+      <c r="D52" s="21">
+        <v>4.5400653061199998</v>
+      </c>
+      <c r="E52" s="21">
+        <v>3.5241142857100001</v>
+      </c>
+      <c r="F52" s="21">
+        <v>2.1977959183700002</v>
+      </c>
+      <c r="G52" s="22">
+        <v>2.43224489796</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
+        <v>51</v>
+      </c>
+      <c r="C53" s="21">
+        <v>4.2686224489800004</v>
+      </c>
+      <c r="D53" s="21">
+        <v>4.66455782313</v>
+      </c>
+      <c r="E53" s="21">
+        <v>3.49482993197</v>
+      </c>
+      <c r="F53" s="21">
+        <v>2.18794217687</v>
+      </c>
+      <c r="G53" s="22">
+        <v>2.4149489795900001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B54" s="12">
+        <v>52</v>
+      </c>
+      <c r="C54" s="21">
+        <v>4.2726063829800003</v>
+      </c>
+      <c r="D54" s="21">
+        <v>4.7284574468100002</v>
+      </c>
+      <c r="E54" s="21">
+        <v>3.4942730496499999</v>
+      </c>
+      <c r="F54" s="21">
+        <v>2.1843439716300002</v>
+      </c>
+      <c r="G54" s="22">
+        <v>2.4319503546100001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55" s="12">
+        <v>53</v>
+      </c>
+      <c r="C55" s="21">
+        <v>4.23831637373</v>
+      </c>
+      <c r="D55" s="21">
+        <v>4.5830712303399999</v>
+      </c>
+      <c r="E55" s="21">
+        <v>3.4920074005599999</v>
+      </c>
+      <c r="F55" s="21">
+        <v>2.1695652173900002</v>
+      </c>
+      <c r="G55" s="22">
+        <v>2.41047178538</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
+        <v>54</v>
+      </c>
+      <c r="C56" s="21">
+        <v>4.1713236714999997</v>
+      </c>
+      <c r="D56" s="21">
+        <v>4.6113816425099996</v>
+      </c>
+      <c r="E56" s="21">
+        <v>3.5131014492800001</v>
+      </c>
+      <c r="F56" s="21">
+        <v>2.1566763285000001</v>
+      </c>
+      <c r="G56" s="22">
+        <v>2.4124444444400002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
+        <v>55</v>
+      </c>
+      <c r="C57" s="21">
+        <v>4.2934747474700004</v>
+      </c>
+      <c r="D57" s="21">
+        <v>4.4801212121200003</v>
+      </c>
+      <c r="E57" s="21">
+        <v>3.52894949495</v>
+      </c>
+      <c r="F57" s="21">
+        <v>2.1450505050499999</v>
+      </c>
+      <c r="G57" s="22">
+        <v>2.3896565656600002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
+        <v>56</v>
+      </c>
+      <c r="C58" s="21">
+        <v>4.1119238900599999</v>
+      </c>
+      <c r="D58" s="21">
+        <v>4.5455813953500002</v>
+      </c>
+      <c r="E58" s="21">
+        <v>3.49919661734</v>
+      </c>
+      <c r="F58" s="21">
+        <v>2.1292177589899999</v>
+      </c>
+      <c r="G58" s="22">
+        <v>2.3656448203</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
+        <v>57</v>
+      </c>
+      <c r="C59" s="21">
+        <v>4.1284606866000004</v>
+      </c>
+      <c r="D59" s="21">
+        <v>4.5396013288999999</v>
+      </c>
+      <c r="E59" s="21">
+        <v>3.4828792912500002</v>
+      </c>
+      <c r="F59" s="21">
+        <v>2.1266666666699998</v>
+      </c>
+      <c r="G59" s="22">
+        <v>2.36677740864</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
+        <v>58</v>
+      </c>
+      <c r="C60" s="21">
+        <v>4.0981649245099998</v>
+      </c>
+      <c r="D60" s="21">
+        <v>4.6010452961699997</v>
+      </c>
+      <c r="E60" s="21">
+        <v>3.4943554006999999</v>
+      </c>
+      <c r="F60" s="21">
+        <v>2.11828106852</v>
+      </c>
+      <c r="G60" s="22">
+        <v>2.3611382113800001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
+        <v>59</v>
+      </c>
+      <c r="C61" s="21">
+        <v>4.1582195121999996</v>
+      </c>
+      <c r="D61" s="21">
+        <v>4.5425609756099998</v>
+      </c>
+      <c r="E61" s="21">
+        <v>3.5132439024400002</v>
+      </c>
+      <c r="F61" s="21">
+        <v>2.1211707317099999</v>
+      </c>
+      <c r="G61" s="22">
+        <v>2.3680487804900001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
+        <v>60</v>
+      </c>
+      <c r="C62" s="21">
+        <v>4.0411025641</v>
+      </c>
+      <c r="D62" s="21">
+        <v>4.5061538461500001</v>
+      </c>
+      <c r="E62" s="21">
+        <v>3.5161025641000001</v>
+      </c>
+      <c r="F62" s="21">
+        <v>2.1152307692300001</v>
+      </c>
+      <c r="G62" s="22">
+        <v>2.3432307692299998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
+        <v>61</v>
+      </c>
+      <c r="C63" s="21">
+        <v>4.0391093117399999</v>
+      </c>
+      <c r="D63" s="21">
+        <v>4.6729554655900003</v>
+      </c>
+      <c r="E63" s="21">
+        <v>3.4739541160599998</v>
+      </c>
+      <c r="F63" s="21">
+        <v>2.1017543859600001</v>
+      </c>
+      <c r="G63" s="22">
+        <v>2.3654520917699999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
+        <v>62</v>
+      </c>
+      <c r="C64" s="21">
+        <v>3.9863157894699999</v>
+      </c>
+      <c r="D64" s="21">
+        <v>4.5043812233300002</v>
+      </c>
+      <c r="E64" s="21">
+        <v>3.5054338549100001</v>
+      </c>
+      <c r="F64" s="21">
+        <v>2.1054907539099998</v>
+      </c>
+      <c r="G64" s="22">
+        <v>2.3202844950200001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
+        <v>63</v>
+      </c>
+      <c r="C65" s="21">
+        <v>4.0812012011999999</v>
+      </c>
+      <c r="D65" s="21">
+        <v>4.5698498498499998</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3.4984984985000001</v>
+      </c>
+      <c r="F65" s="21">
+        <v>2.10618618619</v>
+      </c>
+      <c r="G65" s="22">
+        <v>2.3159759759799998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="15">
+        <v>64</v>
+      </c>
+      <c r="C66" s="23">
+        <v>4.0580634920599996</v>
+      </c>
+      <c r="D66" s="23">
+        <v>4.4579047619000001</v>
+      </c>
+      <c r="E66" s="23">
+        <v>3.4367936507899999</v>
+      </c>
+      <c r="F66" s="23">
+        <v>2.0724761904800002</v>
+      </c>
+      <c r="G66" s="24">
+        <v>2.3159047619000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:G66">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
